--- a/data/trans_orig/P19C03-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P19C03-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CE7D6F3-8CBC-4549-88E3-20D9F6660B69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F3DA313-E20B-4655-B863-78E7188B240A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8A2A5C29-6768-4261-A249-90E577AB8C11}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1F7FB910-D195-46E2-943C-6E68320C76C0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="429">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por un empaste en 2007 (Tasa respuesta: 78,1%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>37,51%</t>
   </si>
   <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>49,03%</t>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>49,15%</t>
   </si>
   <si>
     <t>35,36%</t>
   </si>
   <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>45,08%</t>
   </si>
   <si>
     <t>36,33%</t>
   </si>
   <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>43,8%</t>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>45,19%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>62,49%</t>
   </si>
   <si>
-    <t>50,97%</t>
-  </si>
-  <si>
-    <t>73,16%</t>
+    <t>50,85%</t>
+  </si>
+  <si>
+    <t>73,24%</t>
   </si>
   <si>
     <t>64,64%</t>
   </si>
   <si>
-    <t>54,02%</t>
-  </si>
-  <si>
-    <t>72,87%</t>
+    <t>54,92%</t>
+  </si>
+  <si>
+    <t>73,26%</t>
   </si>
   <si>
     <t>63,67%</t>
   </si>
   <si>
-    <t>56,2%</t>
-  </si>
-  <si>
-    <t>70,42%</t>
+    <t>54,81%</t>
+  </si>
+  <si>
+    <t>69,91%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>36,99%</t>
   </si>
   <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>42,23%</t>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>41,6%</t>
   </si>
   <si>
     <t>35,87%</t>
   </si>
   <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>40,24%</t>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
   </si>
   <si>
     <t>36,4%</t>
   </si>
   <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>39,67%</t>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
   </si>
   <si>
     <t>63,01%</t>
   </si>
   <si>
-    <t>57,77%</t>
-  </si>
-  <si>
-    <t>67,5%</t>
+    <t>58,4%</t>
+  </si>
+  <si>
+    <t>67,98%</t>
   </si>
   <si>
     <t>64,13%</t>
   </si>
   <si>
-    <t>59,76%</t>
-  </si>
-  <si>
-    <t>68,81%</t>
+    <t>59,36%</t>
+  </si>
+  <si>
+    <t>68,82%</t>
   </si>
   <si>
     <t>63,6%</t>
   </si>
   <si>
-    <t>60,33%</t>
-  </si>
-  <si>
-    <t>66,87%</t>
+    <t>60,26%</t>
+  </si>
+  <si>
+    <t>67,12%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -197,682 +197,688 @@
     <t>29,96%</t>
   </si>
   <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
   </si>
   <si>
     <t>32,77%</t>
   </si>
   <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>70,04%</t>
+  </si>
+  <si>
+    <t>66,46%</t>
+  </si>
+  <si>
+    <t>73,71%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>63,93%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
+  </si>
+  <si>
+    <t>68,56%</t>
+  </si>
+  <si>
+    <t>66,09%</t>
+  </si>
+  <si>
+    <t>70,91%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>64,53%</t>
+  </si>
+  <si>
+    <t>60,58%</t>
+  </si>
+  <si>
+    <t>69,11%</t>
+  </si>
+  <si>
+    <t>67,53%</t>
+  </si>
+  <si>
+    <t>63,84%</t>
+  </si>
+  <si>
+    <t>71,58%</t>
+  </si>
+  <si>
+    <t>63,34%</t>
+  </si>
+  <si>
+    <t>69,02%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>72,03%</t>
+  </si>
+  <si>
+    <t>68,36%</t>
+  </si>
+  <si>
+    <t>74,94%</t>
+  </si>
+  <si>
+    <t>71,39%</t>
+  </si>
+  <si>
+    <t>68,11%</t>
+  </si>
+  <si>
+    <t>74,5%</t>
+  </si>
+  <si>
+    <t>71,69%</t>
+  </si>
+  <si>
+    <t>69,46%</t>
+  </si>
+  <si>
+    <t>73,72%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>68,01%</t>
+  </si>
+  <si>
+    <t>69,9%</t>
+  </si>
+  <si>
+    <t>67,94%</t>
+  </si>
+  <si>
+    <t>66,03%</t>
+  </si>
+  <si>
+    <t>69,59%</t>
+  </si>
+  <si>
+    <t>67,97%</t>
+  </si>
+  <si>
+    <t>66,64%</t>
+  </si>
+  <si>
+    <t>69,22%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por un empaste en 2012 (Tasa respuesta: 86,78%)</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
     <t>29,56%</t>
   </si>
   <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>70,04%</t>
-  </si>
-  <si>
-    <t>66,59%</t>
-  </si>
-  <si>
-    <t>73,81%</t>
-  </si>
-  <si>
-    <t>67,23%</t>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>40,03%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>74,23%</t>
+  </si>
+  <si>
+    <t>64,59%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
   </si>
   <si>
     <t>70,44%</t>
   </si>
   <si>
-    <t>68,56%</t>
-  </si>
-  <si>
-    <t>65,77%</t>
-  </si>
-  <si>
-    <t>70,9%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>39,97%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>64,53%</t>
-  </si>
-  <si>
-    <t>60,03%</t>
-  </si>
-  <si>
-    <t>68,75%</t>
-  </si>
-  <si>
-    <t>67,53%</t>
-  </si>
-  <si>
-    <t>63,74%</t>
-  </si>
-  <si>
-    <t>71,23%</t>
-  </si>
-  <si>
-    <t>66,09%</t>
-  </si>
-  <si>
-    <t>63,13%</t>
-  </si>
-  <si>
-    <t>68,82%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>72,03%</t>
-  </si>
-  <si>
-    <t>68,85%</t>
-  </si>
-  <si>
-    <t>75,42%</t>
-  </si>
-  <si>
-    <t>71,39%</t>
-  </si>
-  <si>
-    <t>68,17%</t>
-  </si>
-  <si>
-    <t>74,66%</t>
-  </si>
-  <si>
-    <t>71,69%</t>
-  </si>
-  <si>
-    <t>69,37%</t>
-  </si>
-  <si>
-    <t>73,88%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>68,01%</t>
-  </si>
-  <si>
-    <t>66,02%</t>
-  </si>
-  <si>
-    <t>69,98%</t>
-  </si>
-  <si>
-    <t>67,94%</t>
-  </si>
-  <si>
-    <t>66,11%</t>
-  </si>
-  <si>
-    <t>69,83%</t>
-  </si>
-  <si>
-    <t>67,97%</t>
-  </si>
-  <si>
-    <t>66,75%</t>
-  </si>
-  <si>
-    <t>69,39%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por un empaste en 2012 (Tasa respuesta: 86,78%)</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>40,97%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>74,23%</t>
-  </si>
-  <si>
-    <t>65,82%</t>
-  </si>
-  <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>59,03%</t>
-  </si>
-  <si>
-    <t>78,77%</t>
+    <t>59,97%</t>
+  </si>
+  <si>
+    <t>80,57%</t>
   </si>
   <si>
     <t>72,4%</t>
   </si>
   <si>
-    <t>78,28%</t>
+    <t>65,75%</t>
+  </si>
+  <si>
+    <t>78,47%</t>
   </si>
   <si>
     <t>28,27%</t>
   </si>
   <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
   </si>
   <si>
     <t>26,61%</t>
   </si>
   <si>
-    <t>22,97%</t>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>71,73%</t>
+  </si>
+  <si>
+    <t>67,65%</t>
+  </si>
+  <si>
+    <t>75,74%</t>
+  </si>
+  <si>
+    <t>73,39%</t>
+  </si>
+  <si>
+    <t>69,62%</t>
+  </si>
+  <si>
+    <t>77,36%</t>
+  </si>
+  <si>
+    <t>72,59%</t>
+  </si>
+  <si>
+    <t>69,8%</t>
+  </si>
+  <si>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>68,16%</t>
+  </si>
+  <si>
+    <t>64,91%</t>
+  </si>
+  <si>
+    <t>71,68%</t>
+  </si>
+  <si>
+    <t>69,86%</t>
+  </si>
+  <si>
+    <t>66,71%</t>
+  </si>
+  <si>
+    <t>73,11%</t>
+  </si>
+  <si>
+    <t>66,62%</t>
+  </si>
+  <si>
+    <t>71,29%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>69,26%</t>
+  </si>
+  <si>
+    <t>65,05%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
+  </si>
+  <si>
+    <t>65,22%</t>
+  </si>
+  <si>
+    <t>72,93%</t>
+  </si>
+  <si>
+    <t>69,44%</t>
+  </si>
+  <si>
+    <t>66,5%</t>
+  </si>
+  <si>
+    <t>72,12%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>70,83%</t>
+  </si>
+  <si>
+    <t>67,25%</t>
+  </si>
+  <si>
+    <t>74,04%</t>
+  </si>
+  <si>
+    <t>71,9%</t>
+  </si>
+  <si>
+    <t>68,91%</t>
+  </si>
+  <si>
+    <t>74,76%</t>
+  </si>
+  <si>
+    <t>71,4%</t>
+  </si>
+  <si>
+    <t>68,92%</t>
+  </si>
+  <si>
+    <t>73,4%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
   </si>
   <si>
     <t>30,73%</t>
   </si>
   <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>71,73%</t>
-  </si>
-  <si>
-    <t>67,29%</t>
-  </si>
-  <si>
-    <t>75,49%</t>
-  </si>
-  <si>
-    <t>73,39%</t>
+    <t>69,97%</t>
+  </si>
+  <si>
+    <t>68,03%</t>
+  </si>
+  <si>
+    <t>71,63%</t>
+  </si>
+  <si>
+    <t>71,04%</t>
+  </si>
+  <si>
+    <t>72,8%</t>
+  </si>
+  <si>
+    <t>70,52%</t>
   </si>
   <si>
     <t>69,27%</t>
   </si>
   <si>
-    <t>77,03%</t>
-  </si>
-  <si>
-    <t>72,59%</t>
-  </si>
-  <si>
-    <t>69,91%</t>
-  </si>
-  <si>
-    <t>75,22%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>68,16%</t>
-  </si>
-  <si>
-    <t>64,7%</t>
-  </si>
-  <si>
-    <t>71,32%</t>
-  </si>
-  <si>
-    <t>69,86%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>69,02%</t>
-  </si>
-  <si>
-    <t>66,86%</t>
-  </si>
-  <si>
-    <t>71,33%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>69,26%</t>
-  </si>
-  <si>
-    <t>65,58%</t>
-  </si>
-  <si>
-    <t>72,91%</t>
-  </si>
-  <si>
-    <t>69,62%</t>
-  </si>
-  <si>
-    <t>66,13%</t>
-  </si>
-  <si>
-    <t>73,51%</t>
-  </si>
-  <si>
-    <t>69,44%</t>
-  </si>
-  <si>
-    <t>66,65%</t>
-  </si>
-  <si>
-    <t>71,97%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
+    <t>71,55%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por un empaste en 2015 (Tasa respuesta: 80,03%)</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>84,08%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>78,52%</t>
+  </si>
+  <si>
+    <t>70,27%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>74,49%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>66,89%</t>
+  </si>
+  <si>
+    <t>62,28%</t>
+  </si>
+  <si>
+    <t>73,02%</t>
+  </si>
+  <si>
+    <t>69,06%</t>
+  </si>
+  <si>
+    <t>77,05%</t>
+  </si>
+  <si>
+    <t>70,02%</t>
+  </si>
+  <si>
+    <t>66,8%</t>
+  </si>
+  <si>
+    <t>73,36%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
   </si>
   <si>
     <t>26,36%</t>
   </si>
   <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>70,83%</t>
-  </si>
-  <si>
-    <t>67,43%</t>
-  </si>
-  <si>
-    <t>73,84%</t>
-  </si>
-  <si>
-    <t>71,9%</t>
-  </si>
-  <si>
-    <t>68,77%</t>
-  </si>
-  <si>
-    <t>75,06%</t>
-  </si>
-  <si>
-    <t>71,4%</t>
-  </si>
-  <si>
-    <t>69,36%</t>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>73,82%</t>
+  </si>
+  <si>
+    <t>70,95%</t>
+  </si>
+  <si>
+    <t>76,93%</t>
+  </si>
+  <si>
+    <t>73,47%</t>
+  </si>
+  <si>
+    <t>70,28%</t>
+  </si>
+  <si>
+    <t>76,47%</t>
   </si>
   <si>
     <t>73,64%</t>
   </si>
   <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>69,97%</t>
-  </si>
-  <si>
-    <t>68,19%</t>
-  </si>
-  <si>
-    <t>71,65%</t>
-  </si>
-  <si>
-    <t>71,04%</t>
-  </si>
-  <si>
-    <t>69,31%</t>
-  </si>
-  <si>
-    <t>72,62%</t>
-  </si>
-  <si>
-    <t>70,52%</t>
-  </si>
-  <si>
-    <t>69,29%</t>
-  </si>
-  <si>
-    <t>71,77%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por un empaste en 2015 (Tasa respuesta: 80,03%)</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>84,08%</t>
-  </si>
-  <si>
-    <t>75,54%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>78,52%</t>
-  </si>
-  <si>
-    <t>70,09%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>38,35%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>66,89%</t>
-  </si>
-  <si>
-    <t>61,65%</t>
-  </si>
-  <si>
-    <t>71,16%</t>
-  </si>
-  <si>
-    <t>73,02%</t>
-  </si>
-  <si>
-    <t>68,51%</t>
-  </si>
-  <si>
-    <t>76,88%</t>
-  </si>
-  <si>
-    <t>70,02%</t>
-  </si>
-  <si>
-    <t>66,95%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>73,82%</t>
-  </si>
-  <si>
-    <t>70,58%</t>
-  </si>
-  <si>
-    <t>73,47%</t>
-  </si>
-  <si>
-    <t>70,29%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>71,0%</t>
-  </si>
-  <si>
-    <t>75,52%</t>
+    <t>71,59%</t>
+  </si>
+  <si>
+    <t>75,75%</t>
   </si>
   <si>
     <t>33,32%</t>
   </si>
   <si>
-    <t>29,18%</t>
+    <t>29,37%</t>
   </si>
   <si>
     <t>37,81%</t>
@@ -881,19 +887,16 @@
     <t>31,95%</t>
   </si>
   <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
   </si>
   <si>
     <t>32,61%</t>
   </si>
   <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
+    <t>29,8%</t>
   </si>
   <si>
     <t>66,68%</t>
@@ -902,168 +905,165 @@
     <t>62,19%</t>
   </si>
   <si>
-    <t>70,82%</t>
+    <t>70,63%</t>
   </si>
   <si>
     <t>68,05%</t>
   </si>
   <si>
-    <t>64,12%</t>
-  </si>
-  <si>
-    <t>71,61%</t>
+    <t>63,99%</t>
+  </si>
+  <si>
+    <t>72,18%</t>
   </si>
   <si>
     <t>67,39%</t>
   </si>
   <si>
-    <t>64,57%</t>
-  </si>
-  <si>
-    <t>70,25%</t>
+    <t>70,2%</t>
   </si>
   <si>
     <t>23,38%</t>
   </si>
   <si>
-    <t>20,45%</t>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
   </si>
   <si>
     <t>22,53%</t>
   </si>
   <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
   </si>
   <si>
     <t>22,93%</t>
   </si>
   <si>
-    <t>20,88%</t>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>76,62%</t>
+  </si>
+  <si>
+    <t>73,87%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>77,47%</t>
+  </si>
+  <si>
+    <t>74,51%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
+  </si>
+  <si>
+    <t>74,93%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>72,43%</t>
+  </si>
+  <si>
+    <t>70,41%</t>
+  </si>
+  <si>
+    <t>74,05%</t>
+  </si>
+  <si>
+    <t>71,95%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>71,96%</t>
+  </si>
+  <si>
+    <t>74,4%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por un empaste en 2023 (Tasa respuesta: 96,85%)</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
   </si>
   <si>
     <t>25,0%</t>
   </si>
   <si>
-    <t>76,62%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
-  </si>
-  <si>
-    <t>77,47%</t>
-  </si>
-  <si>
-    <t>74,6%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>77,07%</t>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>82,08%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>82,25%</t>
   </si>
   <si>
     <t>75,0%</t>
   </si>
   <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>72,43%</t>
-  </si>
-  <si>
-    <t>70,65%</t>
-  </si>
-  <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>73,71%</t>
-  </si>
-  <si>
-    <t>72,12%</t>
-  </si>
-  <si>
-    <t>75,33%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>71,88%</t>
-  </si>
-  <si>
-    <t>74,26%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por un empaste en 2023 (Tasa respuesta: 96,85%)</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>82,08%</t>
-  </si>
-  <si>
-    <t>73,4%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>82,25%</t>
-  </si>
-  <si>
     <t>87,2%</t>
   </si>
   <si>
@@ -1187,9 +1187,6 @@
     <t>27,91%</t>
   </si>
   <si>
-    <t>19,81%</t>
-  </si>
-  <si>
     <t>12,92%</t>
   </si>
   <si>
@@ -1212,9 +1209,6 @@
   </si>
   <si>
     <t>79,7%</t>
-  </si>
-  <si>
-    <t>80,19%</t>
   </si>
   <si>
     <t>75,77%</t>
@@ -1743,7 +1737,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E765EA04-811A-41B7-9F7D-D2F6874D41E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC79A93B-4714-4A63-BDEF-F716B3F4A5CA}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2198,7 +2192,7 @@
         <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>449</v>
@@ -2207,13 +2201,13 @@
         <v>479910</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2228,13 +2222,13 @@
         <v>505788</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>509</v>
@@ -2243,13 +2237,13 @@
         <v>540656</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>975</v>
@@ -2258,13 +2252,13 @@
         <v>1046444</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2320,7 +2314,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2332,13 +2326,13 @@
         <v>192948</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>193</v>
@@ -2347,13 +2341,13 @@
         <v>189795</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>375</v>
@@ -2362,13 +2356,13 @@
         <v>382742</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2383,13 +2377,13 @@
         <v>351100</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>403</v>
@@ -2398,13 +2392,13 @@
         <v>394814</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>735</v>
@@ -2413,7 +2407,7 @@
         <v>745915</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>84</v>
@@ -2648,7 +2642,7 @@
         <v>106</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>107</v>
+        <v>59</v>
       </c>
       <c r="H19" s="7">
         <v>856</v>
@@ -2657,13 +2651,13 @@
         <v>878804</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M19" s="7">
         <v>1624</v>
@@ -2672,13 +2666,13 @@
         <v>1663744</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2693,13 +2687,13 @@
         <v>1668761</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H20" s="7">
         <v>1823</v>
@@ -2708,13 +2702,13 @@
         <v>1862133</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M20" s="7">
         <v>3461</v>
@@ -2723,13 +2717,13 @@
         <v>3530894</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2785,7 +2779,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2806,7 +2800,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE42404E-0A2D-4432-9E74-CFF0D1DABAF5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B81A6305-569A-4BFB-829F-E66024A5AE22}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2823,7 +2817,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2930,13 +2924,13 @@
         <v>25964</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H4" s="7">
         <v>25</v>
@@ -2945,13 +2939,13 @@
         <v>27729</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>55</v>
+        <v>126</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M4" s="7">
         <v>52</v>
@@ -2960,13 +2954,13 @@
         <v>53692</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2996,13 +2990,13 @@
         <v>66089</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>63</v>
+        <v>135</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M5" s="7">
         <v>135</v>
@@ -3011,13 +3005,13 @@
         <v>140880</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3085,13 +3079,13 @@
         <v>142829</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H7" s="7">
         <v>137</v>
@@ -3100,13 +3094,13 @@
         <v>144220</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M7" s="7">
         <v>273</v>
@@ -3115,13 +3109,13 @@
         <v>287049</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3136,13 +3130,13 @@
         <v>362368</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H8" s="7">
         <v>373</v>
@@ -3151,13 +3145,13 @@
         <v>397763</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M8" s="7">
         <v>713</v>
@@ -3166,13 +3160,13 @@
         <v>760131</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3240,13 +3234,13 @@
         <v>275771</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H10" s="7">
         <v>250</v>
@@ -3255,13 +3249,13 @@
         <v>270686</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M10" s="7">
         <v>501</v>
@@ -3270,13 +3264,13 @@
         <v>546458</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3291,13 +3285,13 @@
         <v>590307</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H11" s="7">
         <v>571</v>
@@ -3306,13 +3300,13 @@
         <v>627294</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M11" s="7">
         <v>1118</v>
@@ -3321,7 +3315,7 @@
         <v>1217600</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>172</v>
+        <v>85</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>173</v>
@@ -3383,7 +3377,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3410,13 +3404,13 @@
         <v>205821</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="M13" s="7">
         <v>372</v>
@@ -3425,13 +3419,13 @@
         <v>401067</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3446,13 +3440,13 @@
         <v>439834</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="H14" s="7">
         <v>424</v>
@@ -3461,13 +3455,13 @@
         <v>471680</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="M14" s="7">
         <v>823</v>
@@ -3476,13 +3470,13 @@
         <v>911514</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3550,13 +3544,13 @@
         <v>234757</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="H16" s="7">
         <v>253</v>
@@ -3565,13 +3559,13 @@
         <v>262261</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="M16" s="7">
         <v>485</v>
@@ -3580,13 +3574,13 @@
         <v>497018</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3601,13 +3595,13 @@
         <v>570006</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="H17" s="7">
         <v>634</v>
@@ -3616,13 +3610,13 @@
         <v>670940</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="M17" s="7">
         <v>1175</v>
@@ -3631,13 +3625,13 @@
         <v>1240946</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3705,13 +3699,13 @@
         <v>874567</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="H19" s="7">
         <v>855</v>
@@ -3720,13 +3714,13 @@
         <v>910717</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>216</v>
+        <v>95</v>
       </c>
       <c r="M19" s="7">
         <v>1683</v>
@@ -3735,13 +3729,13 @@
         <v>1785284</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3756,13 +3750,13 @@
         <v>2037304</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H20" s="7">
         <v>2059</v>
@@ -3771,28 +3765,28 @@
         <v>2233767</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>224</v>
+        <v>103</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="M20" s="7">
         <v>3964</v>
       </c>
       <c r="N20" s="7">
-        <v>4271070</v>
+        <v>4271071</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3834,7 +3828,7 @@
         <v>5647</v>
       </c>
       <c r="N21" s="7">
-        <v>6056354</v>
+        <v>6056355</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -3848,7 +3842,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -3869,7 +3863,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13DA1CD2-6E4A-40A7-B5B9-1214466D0FB8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A77ACA34-9E14-47C6-A642-2B603C27AAE5}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3886,7 +3880,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3993,13 +3987,13 @@
         <v>15721</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="H4" s="7">
         <v>22</v>
@@ -4008,13 +4002,13 @@
         <v>21690</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="M4" s="7">
         <v>37</v>
@@ -4023,13 +4017,13 @@
         <v>37411</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>88</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4044,13 +4038,13 @@
         <v>83054</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H5" s="7">
         <v>80</v>
@@ -4059,13 +4053,13 @@
         <v>79311</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="M5" s="7">
         <v>160</v>
@@ -4074,13 +4068,13 @@
         <v>162365</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>98</v>
+        <v>242</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4148,13 +4142,13 @@
         <v>141106</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>247</v>
+        <v>197</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="H7" s="7">
         <v>121</v>
@@ -4163,13 +4157,13 @@
         <v>119605</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="M7" s="7">
         <v>256</v>
@@ -4178,13 +4172,13 @@
         <v>260711</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4199,13 +4193,13 @@
         <v>285112</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>256</v>
+        <v>206</v>
       </c>
       <c r="H8" s="7">
         <v>321</v>
@@ -4214,13 +4208,13 @@
         <v>323756</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="M8" s="7">
         <v>598</v>
@@ -4229,13 +4223,13 @@
         <v>608869</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4303,13 +4297,13 @@
         <v>213721</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="H10" s="7">
         <v>225</v>
@@ -4318,13 +4312,13 @@
         <v>229863</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="M10" s="7">
         <v>424</v>
@@ -4333,7 +4327,7 @@
         <v>443584</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>200</v>
+        <v>266</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>267</v>
@@ -4360,7 +4354,7 @@
         <v>270</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="H11" s="7">
         <v>593</v>
@@ -4369,13 +4363,13 @@
         <v>636510</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M11" s="7">
         <v>1148</v>
@@ -4384,13 +4378,13 @@
         <v>1239135</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>210</v>
+        <v>275</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4446,7 +4440,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4458,13 +4452,13 @@
         <v>183383</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="H13" s="7">
         <v>177</v>
@@ -4473,13 +4467,13 @@
         <v>185198</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M13" s="7">
         <v>341</v>
@@ -4488,13 +4482,13 @@
         <v>368581</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>284</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4509,13 +4503,13 @@
         <v>366977</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H14" s="7">
         <v>375</v>
@@ -4524,13 +4518,13 @@
         <v>394540</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M14" s="7">
         <v>712</v>
@@ -4539,10 +4533,10 @@
         <v>761517</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>292</v>
+        <v>78</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>293</v>
@@ -4619,7 +4613,7 @@
         <v>295</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>200</v>
+        <v>296</v>
       </c>
       <c r="H16" s="7">
         <v>185</v>
@@ -4628,13 +4622,13 @@
         <v>197551</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M16" s="7">
         <v>363</v>
@@ -4643,13 +4637,13 @@
         <v>378223</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4664,13 +4658,13 @@
         <v>591963</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>210</v>
+        <v>304</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="H17" s="7">
         <v>628</v>
@@ -4679,13 +4673,13 @@
         <v>679290</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="M17" s="7">
         <v>1218</v>
@@ -4694,13 +4688,13 @@
         <v>1271253</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4768,13 +4762,13 @@
         <v>734604</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="H19" s="7">
         <v>730</v>
@@ -4783,13 +4777,13 @@
         <v>753907</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>313</v>
+        <v>52</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M19" s="7">
         <v>1421</v>
@@ -4798,13 +4792,13 @@
         <v>1488511</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4816,16 +4810,16 @@
         <v>1839</v>
       </c>
       <c r="D20" s="7">
-        <v>1929730</v>
+        <v>1929729</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H20" s="7">
         <v>1997</v>
@@ -4834,7 +4828,7 @@
         <v>2113408</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>322</v>
+        <v>62</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>323</v>
@@ -4846,7 +4840,7 @@
         <v>3836</v>
       </c>
       <c r="N20" s="7">
-        <v>4043138</v>
+        <v>4043137</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>325</v>
@@ -4867,7 +4861,7 @@
         <v>2530</v>
       </c>
       <c r="D21" s="7">
-        <v>2664334</v>
+        <v>2664333</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -4897,7 +4891,7 @@
         <v>5257</v>
       </c>
       <c r="N21" s="7">
-        <v>5531649</v>
+        <v>5531648</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -4911,7 +4905,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -4932,7 +4926,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5DE0E78-CC52-4D7A-AD54-E32665590C69}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{577224B4-1E2D-4AAD-9206-CEE9E48679CB}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5062,7 +5056,7 @@
         <v>330</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>331</v>
+        <v>198</v>
       </c>
       <c r="H4" s="7">
         <v>41</v>
@@ -5071,13 +5065,13 @@
         <v>22777</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="M4" s="7">
         <v>59</v>
@@ -5110,10 +5104,10 @@
         <v>337</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>339</v>
       </c>
       <c r="H5" s="7">
         <v>197</v>
@@ -5122,10 +5116,10 @@
         <v>105509</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>308</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>341</v>
@@ -5509,7 +5503,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5536,13 +5530,13 @@
         <v>170784</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>384</v>
       </c>
       <c r="M13" s="7">
         <v>364</v>
@@ -5551,13 +5545,13 @@
         <v>339984</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5572,13 +5566,13 @@
         <v>539342</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>389</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>390</v>
       </c>
       <c r="H14" s="7">
         <v>804</v>
@@ -5587,13 +5581,13 @@
         <v>691404</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>393</v>
       </c>
       <c r="M14" s="7">
         <v>1315</v>
@@ -5602,13 +5596,13 @@
         <v>1230746</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>394</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5676,13 +5670,13 @@
         <v>143835</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>397</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>399</v>
       </c>
       <c r="H16" s="7">
         <v>245</v>
@@ -5691,13 +5685,13 @@
         <v>172312</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>400</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>402</v>
       </c>
       <c r="M16" s="7">
         <v>383</v>
@@ -5706,13 +5700,13 @@
         <v>316147</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>403</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5727,13 +5721,13 @@
         <v>781271</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>408</v>
       </c>
       <c r="H17" s="7">
         <v>1265</v>
@@ -5742,13 +5736,13 @@
         <v>942464</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>411</v>
       </c>
       <c r="M17" s="7">
         <v>2092</v>
@@ -5757,13 +5751,13 @@
         <v>1723736</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5831,13 +5825,13 @@
         <v>613687</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H19" s="7">
         <v>941</v>
@@ -5846,13 +5840,13 @@
         <v>645867</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>417</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>419</v>
       </c>
       <c r="M19" s="7">
         <v>1510</v>
@@ -5861,13 +5855,13 @@
         <v>1259555</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5882,13 +5876,13 @@
         <v>2662179</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H20" s="7">
         <v>4275</v>
@@ -5897,13 +5891,13 @@
         <v>3070311</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>425</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>427</v>
       </c>
       <c r="M20" s="7">
         <v>6958</v>
@@ -5912,13 +5906,13 @@
         <v>5732489</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>428</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5974,7 +5968,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P19C03-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P19C03-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F3DA313-E20B-4655-B863-78E7188B240A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{59C82D56-8826-402F-9396-CE11FB9B30E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1F7FB910-D195-46E2-943C-6E68320C76C0}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B977F735-15E7-4EA7-85B5-4D2E547C9909}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="445">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por un empaste en 2007 (Tasa respuesta: 78,1%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -77,28 +77,28 @@
     <t>37,51%</t>
   </si>
   <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>49,15%</t>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>48,97%</t>
   </si>
   <si>
     <t>35,36%</t>
   </si>
   <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>45,08%</t>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>44,8%</t>
   </si>
   <si>
     <t>36,33%</t>
   </si>
   <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>45,19%</t>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>44,2%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,1225 +107,1273 @@
     <t>62,49%</t>
   </si>
   <si>
-    <t>50,85%</t>
-  </si>
-  <si>
-    <t>73,24%</t>
+    <t>51,03%</t>
+  </si>
+  <si>
+    <t>72,89%</t>
   </si>
   <si>
     <t>64,64%</t>
   </si>
   <si>
-    <t>54,92%</t>
-  </si>
-  <si>
-    <t>73,26%</t>
+    <t>55,2%</t>
+  </si>
+  <si>
+    <t>73,4%</t>
   </si>
   <si>
     <t>63,67%</t>
   </si>
   <si>
-    <t>54,81%</t>
-  </si>
-  <si>
-    <t>69,91%</t>
+    <t>55,8%</t>
+  </si>
+  <si>
+    <t>70,48%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>36,99%</t>
   </si>
   <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>41,6%</t>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>42,22%</t>
   </si>
   <si>
     <t>35,87%</t>
   </si>
   <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
   </si>
   <si>
     <t>36,4%</t>
   </si>
   <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>39,74%</t>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
   </si>
   <si>
     <t>63,01%</t>
   </si>
   <si>
-    <t>58,4%</t>
-  </si>
-  <si>
-    <t>67,98%</t>
+    <t>57,78%</t>
+  </si>
+  <si>
+    <t>67,7%</t>
   </si>
   <si>
     <t>64,13%</t>
   </si>
   <si>
-    <t>59,36%</t>
-  </si>
-  <si>
-    <t>68,82%</t>
+    <t>59,46%</t>
+  </si>
+  <si>
+    <t>68,92%</t>
   </si>
   <si>
     <t>63,6%</t>
   </si>
   <si>
-    <t>60,26%</t>
-  </si>
-  <si>
-    <t>67,12%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>60,22%</t>
+  </si>
+  <si>
+    <t>66,95%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>29,96%</t>
   </si>
   <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>70,04%</t>
+  </si>
+  <si>
+    <t>66,6%</t>
+  </si>
+  <si>
+    <t>73,44%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>63,55%</t>
+  </si>
+  <si>
+    <t>70,37%</t>
+  </si>
+  <si>
+    <t>68,56%</t>
+  </si>
+  <si>
+    <t>66,04%</t>
+  </si>
+  <si>
+    <t>71,0%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>64,53%</t>
+  </si>
+  <si>
+    <t>60,57%</t>
+  </si>
+  <si>
+    <t>67,53%</t>
+  </si>
+  <si>
+    <t>63,72%</t>
+  </si>
+  <si>
+    <t>71,33%</t>
+  </si>
+  <si>
+    <t>66,09%</t>
+  </si>
+  <si>
+    <t>63,2%</t>
+  </si>
+  <si>
+    <t>69,2%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>72,03%</t>
+  </si>
+  <si>
+    <t>68,69%</t>
+  </si>
+  <si>
+    <t>75,48%</t>
+  </si>
+  <si>
+    <t>71,39%</t>
+  </si>
+  <si>
+    <t>68,31%</t>
+  </si>
+  <si>
+    <t>74,48%</t>
+  </si>
+  <si>
+    <t>71,69%</t>
+  </si>
+  <si>
+    <t>69,38%</t>
+  </si>
+  <si>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>68,01%</t>
+  </si>
+  <si>
+    <t>66,25%</t>
+  </si>
+  <si>
+    <t>69,94%</t>
+  </si>
+  <si>
+    <t>67,94%</t>
+  </si>
+  <si>
+    <t>66,0%</t>
+  </si>
+  <si>
+    <t>69,67%</t>
+  </si>
+  <si>
+    <t>67,97%</t>
+  </si>
+  <si>
+    <t>66,64%</t>
+  </si>
+  <si>
+    <t>69,22%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por un empaste en 2012 (Tasa respuesta: 86,78%)</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>39,72%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>74,23%</t>
+  </si>
+  <si>
+    <t>64,5%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>70,44%</t>
+  </si>
+  <si>
+    <t>60,28%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
+  </si>
+  <si>
+    <t>72,4%</t>
+  </si>
+  <si>
+    <t>65,29%</t>
+  </si>
+  <si>
+    <t>78,38%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>71,73%</t>
+  </si>
+  <si>
+    <t>67,86%</t>
+  </si>
+  <si>
+    <t>75,77%</t>
+  </si>
+  <si>
+    <t>73,39%</t>
+  </si>
+  <si>
+    <t>69,25%</t>
+  </si>
+  <si>
+    <t>77,26%</t>
+  </si>
+  <si>
+    <t>72,59%</t>
+  </si>
+  <si>
+    <t>69,68%</t>
+  </si>
+  <si>
+    <t>75,28%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>68,16%</t>
+  </si>
+  <si>
+    <t>64,67%</t>
+  </si>
+  <si>
+    <t>71,34%</t>
+  </si>
+  <si>
+    <t>69,86%</t>
+  </si>
+  <si>
+    <t>66,51%</t>
+  </si>
+  <si>
+    <t>73,05%</t>
+  </si>
+  <si>
+    <t>69,02%</t>
+  </si>
+  <si>
+    <t>66,69%</t>
+  </si>
+  <si>
+    <t>71,29%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>69,26%</t>
+  </si>
+  <si>
+    <t>65,19%</t>
+  </si>
+  <si>
+    <t>73,17%</t>
+  </si>
+  <si>
+    <t>69,62%</t>
+  </si>
+  <si>
+    <t>65,92%</t>
+  </si>
+  <si>
+    <t>69,44%</t>
+  </si>
+  <si>
+    <t>66,66%</t>
+  </si>
+  <si>
+    <t>71,96%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>70,83%</t>
+  </si>
+  <si>
+    <t>67,51%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>71,9%</t>
+  </si>
+  <si>
+    <t>68,89%</t>
+  </si>
+  <si>
+    <t>74,84%</t>
+  </si>
+  <si>
+    <t>71,4%</t>
+  </si>
+  <si>
+    <t>69,27%</t>
+  </si>
+  <si>
+    <t>73,53%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>69,97%</t>
+  </si>
+  <si>
+    <t>68,21%</t>
+  </si>
+  <si>
+    <t>71,78%</t>
+  </si>
+  <si>
+    <t>71,04%</t>
+  </si>
+  <si>
+    <t>69,24%</t>
+  </si>
+  <si>
+    <t>72,58%</t>
+  </si>
+  <si>
+    <t>70,52%</t>
+  </si>
+  <si>
+    <t>69,29%</t>
+  </si>
+  <si>
+    <t>71,71%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por un empaste en 2016 (Tasa respuesta: 80,03%)</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>84,08%</t>
+  </si>
+  <si>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>78,52%</t>
+  </si>
+  <si>
+    <t>69,54%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>75,21%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>66,89%</t>
+  </si>
+  <si>
+    <t>62,45%</t>
+  </si>
+  <si>
+    <t>71,81%</t>
+  </si>
+  <si>
+    <t>73,02%</t>
+  </si>
+  <si>
+    <t>68,63%</t>
+  </si>
+  <si>
+    <t>77,04%</t>
+  </si>
+  <si>
+    <t>70,02%</t>
+  </si>
+  <si>
+    <t>67,01%</t>
+  </si>
+  <si>
+    <t>72,88%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>73,82%</t>
+  </si>
+  <si>
+    <t>70,4%</t>
+  </si>
+  <si>
+    <t>76,95%</t>
+  </si>
+  <si>
+    <t>73,47%</t>
+  </si>
+  <si>
+    <t>70,36%</t>
+  </si>
+  <si>
+    <t>76,29%</t>
+  </si>
+  <si>
+    <t>73,64%</t>
+  </si>
+  <si>
+    <t>71,51%</t>
+  </si>
+  <si>
+    <t>75,8%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>66,68%</t>
+  </si>
+  <si>
+    <t>62,79%</t>
+  </si>
+  <si>
+    <t>71,14%</t>
+  </si>
+  <si>
+    <t>68,05%</t>
+  </si>
+  <si>
+    <t>64,17%</t>
+  </si>
+  <si>
+    <t>72,0%</t>
+  </si>
+  <si>
+    <t>67,39%</t>
+  </si>
+  <si>
+    <t>64,38%</t>
+  </si>
+  <si>
+    <t>69,9%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>76,62%</t>
+  </si>
+  <si>
+    <t>73,06%</t>
+  </si>
+  <si>
+    <t>79,45%</t>
+  </si>
+  <si>
+    <t>77,47%</t>
+  </si>
+  <si>
+    <t>74,41%</t>
+  </si>
+  <si>
+    <t>80,52%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
+  </si>
+  <si>
+    <t>74,88%</t>
+  </si>
+  <si>
+    <t>79,13%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
     <t>26,29%</t>
   </si>
   <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>70,04%</t>
-  </si>
-  <si>
-    <t>66,46%</t>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>72,43%</t>
+  </si>
+  <si>
+    <t>70,57%</t>
+  </si>
+  <si>
+    <t>74,21%</t>
   </si>
   <si>
     <t>73,71%</t>
   </si>
   <si>
-    <t>67,23%</t>
-  </si>
-  <si>
-    <t>63,93%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>68,56%</t>
-  </si>
-  <si>
-    <t>66,09%</t>
-  </si>
-  <si>
-    <t>70,91%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>64,53%</t>
-  </si>
-  <si>
-    <t>60,58%</t>
-  </si>
-  <si>
-    <t>69,11%</t>
-  </si>
-  <si>
-    <t>67,53%</t>
-  </si>
-  <si>
-    <t>63,84%</t>
-  </si>
-  <si>
-    <t>71,58%</t>
-  </si>
-  <si>
-    <t>63,34%</t>
-  </si>
-  <si>
-    <t>69,02%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>72,03%</t>
-  </si>
-  <si>
-    <t>68,36%</t>
-  </si>
-  <si>
-    <t>74,94%</t>
-  </si>
-  <si>
-    <t>71,39%</t>
-  </si>
-  <si>
-    <t>68,11%</t>
-  </si>
-  <si>
-    <t>74,5%</t>
-  </si>
-  <si>
-    <t>71,69%</t>
-  </si>
-  <si>
-    <t>69,46%</t>
-  </si>
-  <si>
-    <t>73,72%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>68,01%</t>
-  </si>
-  <si>
-    <t>69,9%</t>
-  </si>
-  <si>
-    <t>67,94%</t>
-  </si>
-  <si>
-    <t>66,03%</t>
-  </si>
-  <si>
-    <t>69,59%</t>
-  </si>
-  <si>
-    <t>67,97%</t>
-  </si>
-  <si>
-    <t>66,64%</t>
-  </si>
-  <si>
-    <t>69,22%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por un empaste en 2012 (Tasa respuesta: 86,78%)</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>40,03%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>74,23%</t>
-  </si>
-  <si>
-    <t>64,59%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
-  </si>
-  <si>
-    <t>70,44%</t>
-  </si>
-  <si>
-    <t>59,97%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>72,4%</t>
-  </si>
-  <si>
-    <t>65,75%</t>
-  </si>
-  <si>
-    <t>78,47%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>71,73%</t>
-  </si>
-  <si>
-    <t>67,65%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
-  </si>
-  <si>
-    <t>73,39%</t>
-  </si>
-  <si>
-    <t>69,62%</t>
-  </si>
-  <si>
-    <t>77,36%</t>
-  </si>
-  <si>
-    <t>72,59%</t>
-  </si>
-  <si>
-    <t>69,8%</t>
-  </si>
-  <si>
-    <t>75,19%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>68,16%</t>
-  </si>
-  <si>
-    <t>64,91%</t>
-  </si>
-  <si>
-    <t>71,68%</t>
-  </si>
-  <si>
-    <t>69,86%</t>
-  </si>
-  <si>
-    <t>66,71%</t>
-  </si>
-  <si>
-    <t>73,11%</t>
-  </si>
-  <si>
-    <t>66,62%</t>
-  </si>
-  <si>
-    <t>71,29%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>69,26%</t>
-  </si>
-  <si>
-    <t>65,05%</t>
-  </si>
-  <si>
-    <t>72,92%</t>
-  </si>
-  <si>
-    <t>65,22%</t>
-  </si>
-  <si>
-    <t>72,93%</t>
-  </si>
-  <si>
-    <t>69,44%</t>
-  </si>
-  <si>
-    <t>66,5%</t>
-  </si>
-  <si>
-    <t>72,12%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>70,83%</t>
-  </si>
-  <si>
-    <t>67,25%</t>
-  </si>
-  <si>
-    <t>74,04%</t>
-  </si>
-  <si>
-    <t>71,9%</t>
-  </si>
-  <si>
-    <t>68,91%</t>
-  </si>
-  <si>
-    <t>74,76%</t>
-  </si>
-  <si>
-    <t>71,4%</t>
-  </si>
-  <si>
-    <t>68,92%</t>
-  </si>
-  <si>
-    <t>73,4%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>69,97%</t>
-  </si>
-  <si>
-    <t>68,03%</t>
-  </si>
-  <si>
-    <t>71,63%</t>
-  </si>
-  <si>
-    <t>71,04%</t>
-  </si>
-  <si>
-    <t>72,8%</t>
-  </si>
-  <si>
-    <t>70,52%</t>
-  </si>
-  <si>
-    <t>69,27%</t>
-  </si>
-  <si>
-    <t>71,55%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por un empaste en 2015 (Tasa respuesta: 80,03%)</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>84,08%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>78,52%</t>
-  </si>
-  <si>
-    <t>70,27%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>74,49%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>37,72%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>66,89%</t>
-  </si>
-  <si>
-    <t>62,28%</t>
-  </si>
-  <si>
-    <t>73,02%</t>
-  </si>
-  <si>
-    <t>69,06%</t>
-  </si>
-  <si>
-    <t>77,05%</t>
-  </si>
-  <si>
-    <t>70,02%</t>
-  </si>
-  <si>
-    <t>66,8%</t>
-  </si>
-  <si>
-    <t>73,36%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>73,82%</t>
-  </si>
-  <si>
-    <t>70,95%</t>
-  </si>
-  <si>
-    <t>76,93%</t>
-  </si>
-  <si>
-    <t>73,47%</t>
-  </si>
-  <si>
-    <t>70,28%</t>
-  </si>
-  <si>
-    <t>76,47%</t>
-  </si>
-  <si>
-    <t>73,64%</t>
-  </si>
-  <si>
-    <t>71,59%</t>
-  </si>
-  <si>
-    <t>75,75%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>66,68%</t>
-  </si>
-  <si>
-    <t>62,19%</t>
-  </si>
-  <si>
-    <t>70,63%</t>
-  </si>
-  <si>
-    <t>68,05%</t>
-  </si>
-  <si>
-    <t>63,99%</t>
-  </si>
-  <si>
-    <t>72,18%</t>
-  </si>
-  <si>
-    <t>67,39%</t>
-  </si>
-  <si>
-    <t>70,2%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
+    <t>71,99%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>71,76%</t>
+  </si>
+  <si>
+    <t>74,31%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por un empaste en 2023 (Tasa respuesta: 96,85%)</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>82,08%</t>
+  </si>
+  <si>
+    <t>73,23%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>82,25%</t>
+  </si>
+  <si>
+    <t>75,82%</t>
+  </si>
+  <si>
+    <t>86,91%</t>
+  </si>
+  <si>
+    <t>82,17%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
   </si>
   <si>
     <t>20,46%</t>
   </si>
   <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>76,01%</t>
+  </si>
+  <si>
+    <t>71,27%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>79,27%</t>
+  </si>
+  <si>
+    <t>76,58%</t>
+  </si>
+  <si>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>81,62%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
+  </si>
+  <si>
+    <t>80,64%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
   </si>
   <si>
     <t>19,81%</t>
   </si>
   <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>76,62%</t>
-  </si>
-  <si>
-    <t>73,87%</t>
-  </si>
-  <si>
-    <t>79,54%</t>
-  </si>
-  <si>
-    <t>77,47%</t>
-  </si>
-  <si>
-    <t>74,51%</t>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>76,12%</t>
+  </si>
+  <si>
+    <t>79,52%</t>
   </si>
   <si>
     <t>80,19%</t>
   </si>
   <si>
-    <t>77,07%</t>
-  </si>
-  <si>
-    <t>74,93%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>72,43%</t>
-  </si>
-  <si>
-    <t>70,41%</t>
-  </si>
-  <si>
-    <t>74,05%</t>
-  </si>
-  <si>
-    <t>71,95%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>71,96%</t>
-  </si>
-  <si>
-    <t>74,4%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por un empaste en 2023 (Tasa respuesta: 96,85%)</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>82,08%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>82,25%</t>
-  </si>
-  <si>
-    <t>75,0%</t>
-  </si>
-  <si>
-    <t>87,2%</t>
-  </si>
-  <si>
-    <t>82,17%</t>
-  </si>
-  <si>
-    <t>76,58%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>76,01%</t>
-  </si>
-  <si>
-    <t>71,34%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>79,38%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
-  </si>
-  <si>
-    <t>76,72%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>82,81%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>82,05%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>72,09%</t>
-  </si>
-  <si>
-    <t>79,7%</t>
-  </si>
-  <si>
-    <t>75,77%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
   </si>
   <si>
     <t>78,36%</t>
   </si>
   <si>
-    <t>75,53%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
+    <t>75,14%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
   </si>
   <si>
     <t>15,55%</t>
   </si>
   <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
   </si>
   <si>
     <t>15,46%</t>
   </si>
   <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
   </si>
   <si>
     <t>15,5%</t>
   </si>
   <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
   </si>
   <si>
     <t>84,45%</t>
   </si>
   <si>
-    <t>81,68%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
+    <t>81,75%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
   </si>
   <si>
     <t>84,54%</t>
   </si>
   <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
   </si>
   <si>
     <t>84,5%</t>
   </si>
   <si>
-    <t>82,89%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
+    <t>82,68%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
   </si>
   <si>
     <t>17,38%</t>
   </si>
   <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
   </si>
   <si>
     <t>18,01%</t>
   </si>
   <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>79,46%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>79,58%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
   </si>
   <si>
     <t>82,62%</t>
   </si>
   <si>
-    <t>81,28%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
   </si>
   <si>
     <t>81,99%</t>
   </si>
   <si>
-    <t>80,86%</t>
-  </si>
-  <si>
-    <t>83,19%</t>
+    <t>80,89%</t>
+  </si>
+  <si>
+    <t>83,21%</t>
   </si>
 </sst>
 </file>
@@ -1737,7 +1785,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC79A93B-4714-4A63-BDEF-F716B3F4A5CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D014771-7043-482E-949C-AABD869D7E9E}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1858,7 +1906,7 @@
         <v>26</v>
       </c>
       <c r="D4" s="7">
-        <v>29166</v>
+        <v>29167</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1960,7 +2008,7 @@
         <v>70</v>
       </c>
       <c r="D6" s="7">
-        <v>77765</v>
+        <v>77766</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2329,10 +2377,10 @@
         <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>193</v>
@@ -2341,13 +2389,13 @@
         <v>189795</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>375</v>
@@ -2356,7 +2404,7 @@
         <v>382742</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>76</v>
@@ -2383,7 +2431,7 @@
         <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="H14" s="7">
         <v>403</v>
@@ -2392,13 +2440,13 @@
         <v>394814</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>735</v>
@@ -2407,7 +2455,7 @@
         <v>745915</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>84</v>
@@ -2642,7 +2690,7 @@
         <v>106</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="H19" s="7">
         <v>856</v>
@@ -2651,13 +2699,13 @@
         <v>878804</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M19" s="7">
         <v>1624</v>
@@ -2666,13 +2714,13 @@
         <v>1663744</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2687,13 +2735,13 @@
         <v>1668761</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H20" s="7">
         <v>1823</v>
@@ -2702,13 +2750,13 @@
         <v>1862133</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M20" s="7">
         <v>3461</v>
@@ -2717,13 +2765,13 @@
         <v>3530894</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2779,7 +2827,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2800,7 +2848,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B81A6305-569A-4BFB-829F-E66024A5AE22}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F083DC35-BBE1-4BC4-9101-5AD989072874}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2817,7 +2865,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2924,13 +2972,13 @@
         <v>25964</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H4" s="7">
         <v>25</v>
@@ -2939,13 +2987,13 @@
         <v>27729</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M4" s="7">
         <v>52</v>
@@ -2954,13 +3002,13 @@
         <v>53692</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2975,13 +3023,13 @@
         <v>74790</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H5" s="7">
         <v>57</v>
@@ -2990,13 +3038,13 @@
         <v>66089</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M5" s="7">
         <v>135</v>
@@ -3005,13 +3053,13 @@
         <v>140880</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3079,13 +3127,13 @@
         <v>142829</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H7" s="7">
         <v>137</v>
@@ -3094,13 +3142,13 @@
         <v>144220</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M7" s="7">
         <v>273</v>
@@ -3109,13 +3157,13 @@
         <v>287049</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3130,13 +3178,13 @@
         <v>362368</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H8" s="7">
         <v>373</v>
@@ -3145,13 +3193,13 @@
         <v>397763</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M8" s="7">
         <v>713</v>
@@ -3160,13 +3208,13 @@
         <v>760131</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3234,13 +3282,13 @@
         <v>275771</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H10" s="7">
         <v>250</v>
@@ -3249,13 +3297,13 @@
         <v>270686</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M10" s="7">
         <v>501</v>
@@ -3264,13 +3312,13 @@
         <v>546458</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>76</v>
+        <v>167</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3285,13 +3333,13 @@
         <v>590307</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="H11" s="7">
         <v>571</v>
@@ -3300,13 +3348,13 @@
         <v>627294</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="M11" s="7">
         <v>1118</v>
@@ -3315,13 +3363,13 @@
         <v>1217600</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>85</v>
+        <v>176</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3389,13 +3437,13 @@
         <v>195246</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="H13" s="7">
         <v>190</v>
@@ -3404,13 +3452,13 @@
         <v>205821</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>146</v>
+        <v>182</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>178</v>
+        <v>15</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="M13" s="7">
         <v>372</v>
@@ -3419,13 +3467,13 @@
         <v>401067</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3440,13 +3488,13 @@
         <v>439834</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="H14" s="7">
         <v>424</v>
@@ -3455,13 +3503,13 @@
         <v>471680</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>154</v>
+        <v>190</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>187</v>
+        <v>26</v>
       </c>
       <c r="M14" s="7">
         <v>823</v>
@@ -3470,13 +3518,13 @@
         <v>911514</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3544,13 +3592,13 @@
         <v>234757</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="H16" s="7">
         <v>253</v>
@@ -3559,13 +3607,13 @@
         <v>262261</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="M16" s="7">
         <v>485</v>
@@ -3574,13 +3622,13 @@
         <v>497018</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3595,13 +3643,13 @@
         <v>570006</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="H17" s="7">
         <v>634</v>
@@ -3610,13 +3658,13 @@
         <v>670940</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="M17" s="7">
         <v>1175</v>
@@ -3625,13 +3673,13 @@
         <v>1240946</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3699,13 +3747,13 @@
         <v>874567</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="H19" s="7">
         <v>855</v>
@@ -3714,13 +3762,13 @@
         <v>910717</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>95</v>
+        <v>218</v>
       </c>
       <c r="M19" s="7">
         <v>1683</v>
@@ -3729,13 +3777,13 @@
         <v>1785284</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3750,28 +3798,28 @@
         <v>2037304</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="H20" s="7">
         <v>2059</v>
       </c>
       <c r="I20" s="7">
-        <v>2233767</v>
+        <v>2233766</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>103</v>
+        <v>226</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="M20" s="7">
         <v>3964</v>
@@ -3780,13 +3828,13 @@
         <v>4271071</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3813,7 +3861,7 @@
         <v>2914</v>
       </c>
       <c r="I21" s="7">
-        <v>3144484</v>
+        <v>3144483</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -3842,7 +3890,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3863,7 +3911,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A77ACA34-9E14-47C6-A642-2B603C27AAE5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2139820B-CB4B-4BAD-BE2D-F691C0109261}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3880,7 +3928,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3987,13 +4035,13 @@
         <v>15721</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="H4" s="7">
         <v>22</v>
@@ -4002,13 +4050,13 @@
         <v>21690</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="M4" s="7">
         <v>37</v>
@@ -4017,13 +4065,13 @@
         <v>37411</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4038,13 +4086,13 @@
         <v>83054</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="H5" s="7">
         <v>80</v>
@@ -4053,13 +4101,13 @@
         <v>79311</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="M5" s="7">
         <v>160</v>
@@ -4068,13 +4116,13 @@
         <v>162365</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4142,13 +4190,13 @@
         <v>141106</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>197</v>
+        <v>251</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="H7" s="7">
         <v>121</v>
@@ -4157,13 +4205,13 @@
         <v>119605</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="M7" s="7">
         <v>256</v>
@@ -4172,13 +4220,13 @@
         <v>260711</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4193,13 +4241,13 @@
         <v>285112</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>206</v>
+        <v>261</v>
       </c>
       <c r="H8" s="7">
         <v>321</v>
@@ -4208,13 +4256,13 @@
         <v>323756</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="M8" s="7">
         <v>598</v>
@@ -4223,13 +4271,13 @@
         <v>608869</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4297,13 +4345,13 @@
         <v>213721</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="H10" s="7">
         <v>225</v>
@@ -4312,13 +4360,13 @@
         <v>229863</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="M10" s="7">
         <v>424</v>
@@ -4327,13 +4375,13 @@
         <v>443584</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4348,13 +4396,13 @@
         <v>602625</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="H11" s="7">
         <v>593</v>
@@ -4363,13 +4411,13 @@
         <v>636510</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="M11" s="7">
         <v>1148</v>
@@ -4378,13 +4426,13 @@
         <v>1239135</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4452,13 +4500,13 @@
         <v>183383</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="H13" s="7">
         <v>177</v>
@@ -4467,13 +4515,13 @@
         <v>185198</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="M13" s="7">
         <v>341</v>
@@ -4482,13 +4530,13 @@
         <v>368581</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>70</v>
+        <v>294</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4503,13 +4551,13 @@
         <v>366977</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="H14" s="7">
         <v>375</v>
@@ -4518,13 +4566,13 @@
         <v>394540</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="M14" s="7">
         <v>712</v>
@@ -4533,13 +4581,13 @@
         <v>761517</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>78</v>
+        <v>302</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4607,13 +4655,13 @@
         <v>180672</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="H16" s="7">
         <v>185</v>
@@ -4622,13 +4670,13 @@
         <v>197551</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="M16" s="7">
         <v>363</v>
@@ -4637,13 +4685,13 @@
         <v>378223</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4658,13 +4706,13 @@
         <v>591963</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="H17" s="7">
         <v>628</v>
@@ -4673,13 +4721,13 @@
         <v>679290</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="M17" s="7">
         <v>1218</v>
@@ -4688,13 +4736,13 @@
         <v>1271253</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4762,13 +4810,13 @@
         <v>734604</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="H19" s="7">
         <v>730</v>
@@ -4777,13 +4825,13 @@
         <v>753907</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>52</v>
+        <v>325</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="M19" s="7">
         <v>1421</v>
@@ -4792,13 +4840,13 @@
         <v>1488511</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4810,16 +4858,16 @@
         <v>1839</v>
       </c>
       <c r="D20" s="7">
-        <v>1929729</v>
+        <v>1929730</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="H20" s="7">
         <v>1997</v>
@@ -4828,13 +4876,13 @@
         <v>2113408</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>62</v>
+        <v>334</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="M20" s="7">
         <v>3836</v>
@@ -4843,13 +4891,13 @@
         <v>4043137</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4861,7 +4909,7 @@
         <v>2530</v>
       </c>
       <c r="D21" s="7">
-        <v>2664333</v>
+        <v>2664334</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -4905,7 +4953,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -4926,7 +4974,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{577224B4-1E2D-4AAD-9206-CEE9E48679CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78785E37-E358-417E-936B-3F93BCFAF741}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4943,7 +4991,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5050,13 +5098,13 @@
         <v>18006</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>198</v>
+        <v>343</v>
       </c>
       <c r="H4" s="7">
         <v>41</v>
@@ -5065,13 +5113,13 @@
         <v>22777</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="M4" s="7">
         <v>59</v>
@@ -5080,13 +5128,13 @@
         <v>40783</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5101,13 +5149,13 @@
         <v>82468</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>208</v>
+        <v>351</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>338</v>
+        <v>352</v>
       </c>
       <c r="H5" s="7">
         <v>197</v>
@@ -5116,13 +5164,13 @@
         <v>105509</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>339</v>
+        <v>353</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>340</v>
+        <v>354</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>341</v>
+        <v>355</v>
       </c>
       <c r="M5" s="7">
         <v>294</v>
@@ -5131,13 +5179,13 @@
         <v>187977</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>342</v>
+        <v>356</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>344</v>
+        <v>358</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5205,13 +5253,13 @@
         <v>126221</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>345</v>
+        <v>359</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="H7" s="7">
         <v>168</v>
@@ -5220,13 +5268,13 @@
         <v>100813</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="M7" s="7">
         <v>288</v>
@@ -5235,13 +5283,13 @@
         <v>227034</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>351</v>
+        <v>365</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>353</v>
+        <v>367</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5256,13 +5304,13 @@
         <v>399928</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="H8" s="7">
         <v>790</v>
@@ -5271,13 +5319,13 @@
         <v>468014</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>358</v>
+        <v>372</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="M8" s="7">
         <v>1251</v>
@@ -5286,13 +5334,13 @@
         <v>867942</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>360</v>
+        <v>374</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>361</v>
+        <v>375</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>362</v>
+        <v>376</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5360,13 +5408,13 @@
         <v>156426</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>352</v>
+        <v>379</v>
       </c>
       <c r="H10" s="7">
         <v>267</v>
@@ -5375,13 +5423,13 @@
         <v>179181</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>365</v>
+        <v>380</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="M10" s="7">
         <v>416</v>
@@ -5390,13 +5438,13 @@
         <v>335607</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>368</v>
+        <v>383</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>370</v>
+        <v>385</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5411,13 +5459,13 @@
         <v>859170</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>371</v>
+        <v>386</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>362</v>
+        <v>387</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>372</v>
+        <v>388</v>
       </c>
       <c r="H11" s="7">
         <v>1219</v>
@@ -5426,13 +5474,13 @@
         <v>862919</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>374</v>
+        <v>390</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>375</v>
+        <v>391</v>
       </c>
       <c r="M11" s="7">
         <v>2006</v>
@@ -5441,13 +5489,13 @@
         <v>1722089</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>377</v>
+        <v>393</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>378</v>
+        <v>394</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5515,13 +5563,13 @@
         <v>169199</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>379</v>
+        <v>395</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>380</v>
+        <v>396</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>381</v>
+        <v>251</v>
       </c>
       <c r="H13" s="7">
         <v>220</v>
@@ -5530,13 +5578,13 @@
         <v>170784</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>298</v>
+        <v>397</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>382</v>
+        <v>398</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="M13" s="7">
         <v>364</v>
@@ -5545,13 +5593,13 @@
         <v>339984</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>384</v>
+        <v>400</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>385</v>
+        <v>401</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>386</v>
+        <v>402</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5566,13 +5614,13 @@
         <v>539342</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>387</v>
+        <v>403</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>388</v>
+        <v>261</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="H14" s="7">
         <v>804</v>
@@ -5581,13 +5629,13 @@
         <v>691404</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>308</v>
+        <v>405</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>390</v>
+        <v>406</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>391</v>
+        <v>407</v>
       </c>
       <c r="M14" s="7">
         <v>1315</v>
@@ -5596,13 +5644,13 @@
         <v>1230746</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>392</v>
+        <v>408</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>393</v>
+        <v>409</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>394</v>
+        <v>410</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5670,13 +5718,13 @@
         <v>143835</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>395</v>
+        <v>411</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>396</v>
+        <v>412</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>397</v>
+        <v>413</v>
       </c>
       <c r="H16" s="7">
         <v>245</v>
@@ -5685,13 +5733,13 @@
         <v>172312</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>398</v>
+        <v>414</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>399</v>
+        <v>415</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="M16" s="7">
         <v>383</v>
@@ -5700,13 +5748,13 @@
         <v>316147</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>401</v>
+        <v>417</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>402</v>
+        <v>418</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>403</v>
+        <v>419</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5721,13 +5769,13 @@
         <v>781271</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>404</v>
+        <v>420</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>405</v>
+        <v>421</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>406</v>
+        <v>422</v>
       </c>
       <c r="H17" s="7">
         <v>1265</v>
@@ -5736,13 +5784,13 @@
         <v>942464</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>407</v>
+        <v>423</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>408</v>
+        <v>424</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>409</v>
+        <v>425</v>
       </c>
       <c r="M17" s="7">
         <v>2092</v>
@@ -5751,13 +5799,13 @@
         <v>1723736</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>410</v>
+        <v>426</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>411</v>
+        <v>427</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>412</v>
+        <v>428</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5825,13 +5873,13 @@
         <v>613687</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>414</v>
+        <v>430</v>
       </c>
       <c r="H19" s="7">
         <v>941</v>
@@ -5840,13 +5888,13 @@
         <v>645867</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>415</v>
+        <v>431</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>416</v>
+        <v>432</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>417</v>
+        <v>433</v>
       </c>
       <c r="M19" s="7">
         <v>1510</v>
@@ -5855,13 +5903,13 @@
         <v>1259555</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>418</v>
+        <v>434</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>419</v>
+        <v>435</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>420</v>
+        <v>436</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5876,13 +5924,13 @@
         <v>2662179</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>421</v>
+        <v>437</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>422</v>
+        <v>438</v>
       </c>
       <c r="H20" s="7">
         <v>4275</v>
@@ -5891,13 +5939,13 @@
         <v>3070311</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>423</v>
+        <v>439</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>424</v>
+        <v>440</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>425</v>
+        <v>441</v>
       </c>
       <c r="M20" s="7">
         <v>6958</v>
@@ -5906,13 +5954,13 @@
         <v>5732489</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>426</v>
+        <v>442</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>427</v>
+        <v>443</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>428</v>
+        <v>444</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5968,7 +6016,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P19C03-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P19C03-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{59C82D56-8826-402F-9396-CE11FB9B30E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DFC34103-A3DA-4886-9B56-9A85FE0105FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B977F735-15E7-4EA7-85B5-4D2E547C9909}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{44F12977-A731-4A8D-8D53-ECE7277607BC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="431">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por un empaste en 2007 (Tasa respuesta: 78,1%)</t>
   </si>
@@ -71,1309 +71,1267 @@
     <t>&lt;2.000hab</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>37,51%</t>
   </si>
   <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>48,97%</t>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>49,03%</t>
   </si>
   <si>
     <t>35,36%</t>
   </si>
   <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>36,33%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>62,49%</t>
+  </si>
+  <si>
+    <t>50,97%</t>
+  </si>
+  <si>
+    <t>73,16%</t>
+  </si>
+  <si>
+    <t>64,64%</t>
+  </si>
+  <si>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>72,87%</t>
+  </si>
+  <si>
+    <t>63,67%</t>
+  </si>
+  <si>
+    <t>56,2%</t>
+  </si>
+  <si>
+    <t>70,42%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
+  </si>
+  <si>
+    <t>63,01%</t>
+  </si>
+  <si>
+    <t>57,77%</t>
+  </si>
+  <si>
+    <t>67,5%</t>
+  </si>
+  <si>
+    <t>64,13%</t>
+  </si>
+  <si>
+    <t>59,76%</t>
+  </si>
+  <si>
+    <t>68,81%</t>
+  </si>
+  <si>
+    <t>63,6%</t>
+  </si>
+  <si>
+    <t>60,33%</t>
+  </si>
+  <si>
+    <t>66,87%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>70,04%</t>
+  </si>
+  <si>
+    <t>66,59%</t>
+  </si>
+  <si>
+    <t>73,81%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>70,44%</t>
+  </si>
+  <si>
+    <t>68,56%</t>
+  </si>
+  <si>
+    <t>65,77%</t>
+  </si>
+  <si>
+    <t>70,9%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>64,53%</t>
+  </si>
+  <si>
+    <t>60,03%</t>
+  </si>
+  <si>
+    <t>68,75%</t>
+  </si>
+  <si>
+    <t>67,53%</t>
+  </si>
+  <si>
+    <t>63,74%</t>
+  </si>
+  <si>
+    <t>71,23%</t>
+  </si>
+  <si>
+    <t>66,09%</t>
+  </si>
+  <si>
+    <t>63,13%</t>
+  </si>
+  <si>
+    <t>68,82%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>72,03%</t>
+  </si>
+  <si>
+    <t>68,85%</t>
+  </si>
+  <si>
+    <t>75,42%</t>
+  </si>
+  <si>
+    <t>71,39%</t>
+  </si>
+  <si>
+    <t>68,17%</t>
+  </si>
+  <si>
+    <t>74,66%</t>
+  </si>
+  <si>
+    <t>71,69%</t>
+  </si>
+  <si>
+    <t>69,37%</t>
+  </si>
+  <si>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>68,01%</t>
+  </si>
+  <si>
+    <t>66,02%</t>
+  </si>
+  <si>
+    <t>69,98%</t>
+  </si>
+  <si>
+    <t>67,94%</t>
+  </si>
+  <si>
+    <t>66,11%</t>
+  </si>
+  <si>
+    <t>69,83%</t>
+  </si>
+  <si>
+    <t>67,97%</t>
+  </si>
+  <si>
+    <t>66,75%</t>
+  </si>
+  <si>
+    <t>69,39%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por un empaste en 2012 (Tasa respuesta: 86,78%)</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>40,97%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>74,23%</t>
+  </si>
+  <si>
+    <t>65,82%</t>
+  </si>
+  <si>
+    <t>82,48%</t>
+  </si>
+  <si>
+    <t>59,03%</t>
+  </si>
+  <si>
+    <t>78,77%</t>
+  </si>
+  <si>
+    <t>72,4%</t>
+  </si>
+  <si>
+    <t>78,28%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>71,73%</t>
+  </si>
+  <si>
+    <t>67,29%</t>
+  </si>
+  <si>
+    <t>75,49%</t>
+  </si>
+  <si>
+    <t>73,39%</t>
+  </si>
+  <si>
+    <t>69,27%</t>
+  </si>
+  <si>
+    <t>77,03%</t>
+  </si>
+  <si>
+    <t>72,59%</t>
+  </si>
+  <si>
+    <t>69,91%</t>
+  </si>
+  <si>
+    <t>75,22%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>68,16%</t>
+  </si>
+  <si>
+    <t>64,7%</t>
+  </si>
+  <si>
+    <t>71,32%</t>
+  </si>
+  <si>
+    <t>69,86%</t>
+  </si>
+  <si>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>69,02%</t>
+  </si>
+  <si>
+    <t>66,86%</t>
+  </si>
+  <si>
+    <t>71,33%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>69,26%</t>
+  </si>
+  <si>
+    <t>65,58%</t>
+  </si>
+  <si>
+    <t>72,91%</t>
+  </si>
+  <si>
+    <t>69,62%</t>
+  </si>
+  <si>
+    <t>66,13%</t>
+  </si>
+  <si>
+    <t>73,51%</t>
+  </si>
+  <si>
+    <t>69,44%</t>
+  </si>
+  <si>
+    <t>66,65%</t>
+  </si>
+  <si>
+    <t>71,97%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>70,83%</t>
+  </si>
+  <si>
+    <t>67,43%</t>
+  </si>
+  <si>
+    <t>73,84%</t>
+  </si>
+  <si>
+    <t>71,9%</t>
+  </si>
+  <si>
+    <t>68,77%</t>
+  </si>
+  <si>
+    <t>75,06%</t>
+  </si>
+  <si>
+    <t>71,4%</t>
+  </si>
+  <si>
+    <t>69,36%</t>
+  </si>
+  <si>
+    <t>73,64%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>69,97%</t>
+  </si>
+  <si>
+    <t>68,19%</t>
+  </si>
+  <si>
+    <t>71,65%</t>
+  </si>
+  <si>
+    <t>71,04%</t>
+  </si>
+  <si>
+    <t>69,31%</t>
+  </si>
+  <si>
+    <t>72,62%</t>
+  </si>
+  <si>
+    <t>70,52%</t>
+  </si>
+  <si>
+    <t>69,29%</t>
+  </si>
+  <si>
+    <t>71,77%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por un empaste en 2016 (Tasa respuesta: 80,03%)</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>84,08%</t>
+  </si>
+  <si>
+    <t>75,54%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>78,52%</t>
+  </si>
+  <si>
+    <t>70,09%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>66,89%</t>
+  </si>
+  <si>
+    <t>61,65%</t>
+  </si>
+  <si>
+    <t>71,16%</t>
+  </si>
+  <si>
+    <t>73,02%</t>
+  </si>
+  <si>
+    <t>68,51%</t>
+  </si>
+  <si>
+    <t>76,88%</t>
+  </si>
+  <si>
+    <t>70,02%</t>
+  </si>
+  <si>
+    <t>66,95%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>73,82%</t>
+  </si>
+  <si>
+    <t>70,58%</t>
+  </si>
+  <si>
+    <t>73,47%</t>
+  </si>
+  <si>
+    <t>70,29%</t>
+  </si>
+  <si>
+    <t>76,36%</t>
+  </si>
+  <si>
+    <t>71,0%</t>
+  </si>
+  <si>
+    <t>75,52%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>66,68%</t>
+  </si>
+  <si>
+    <t>62,19%</t>
+  </si>
+  <si>
+    <t>70,82%</t>
+  </si>
+  <si>
+    <t>68,05%</t>
+  </si>
+  <si>
+    <t>64,12%</t>
+  </si>
+  <si>
+    <t>71,61%</t>
+  </si>
+  <si>
+    <t>67,39%</t>
+  </si>
+  <si>
+    <t>64,57%</t>
+  </si>
+  <si>
+    <t>70,25%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>76,62%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>77,47%</t>
+  </si>
+  <si>
+    <t>74,6%</t>
+  </si>
+  <si>
+    <t>80,76%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
+  </si>
+  <si>
+    <t>75,0%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>72,43%</t>
+  </si>
+  <si>
+    <t>70,65%</t>
+  </si>
+  <si>
+    <t>74,32%</t>
+  </si>
+  <si>
+    <t>73,71%</t>
+  </si>
+  <si>
+    <t>72,12%</t>
+  </si>
+  <si>
+    <t>75,33%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>71,88%</t>
+  </si>
+  <si>
+    <t>74,26%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por un empaste en 2023 (Tasa respuesta: 96,85%)</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
     <t>26,6%</t>
   </si>
   <si>
-    <t>44,8%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>44,2%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>62,49%</t>
-  </si>
-  <si>
-    <t>51,03%</t>
-  </si>
-  <si>
-    <t>72,89%</t>
-  </si>
-  <si>
-    <t>64,64%</t>
-  </si>
-  <si>
-    <t>55,2%</t>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>82,08%</t>
   </si>
   <si>
     <t>73,4%</t>
   </si>
   <si>
-    <t>63,67%</t>
-  </si>
-  <si>
-    <t>55,8%</t>
-  </si>
-  <si>
-    <t>70,48%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>42,22%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>63,01%</t>
-  </si>
-  <si>
-    <t>57,78%</t>
-  </si>
-  <si>
-    <t>67,7%</t>
-  </si>
-  <si>
-    <t>64,13%</t>
-  </si>
-  <si>
-    <t>59,46%</t>
-  </si>
-  <si>
-    <t>68,92%</t>
-  </si>
-  <si>
-    <t>63,6%</t>
-  </si>
-  <si>
-    <t>60,22%</t>
-  </si>
-  <si>
-    <t>66,95%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>70,04%</t>
-  </si>
-  <si>
-    <t>66,6%</t>
-  </si>
-  <si>
-    <t>73,44%</t>
-  </si>
-  <si>
-    <t>67,23%</t>
-  </si>
-  <si>
-    <t>63,55%</t>
-  </si>
-  <si>
-    <t>70,37%</t>
-  </si>
-  <si>
-    <t>68,56%</t>
-  </si>
-  <si>
-    <t>66,04%</t>
-  </si>
-  <si>
-    <t>71,0%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>39,43%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>64,53%</t>
-  </si>
-  <si>
-    <t>60,57%</t>
-  </si>
-  <si>
-    <t>67,53%</t>
-  </si>
-  <si>
-    <t>63,72%</t>
-  </si>
-  <si>
-    <t>71,33%</t>
-  </si>
-  <si>
-    <t>66,09%</t>
-  </si>
-  <si>
-    <t>63,2%</t>
-  </si>
-  <si>
-    <t>69,2%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>72,03%</t>
-  </si>
-  <si>
-    <t>68,69%</t>
-  </si>
-  <si>
-    <t>75,48%</t>
-  </si>
-  <si>
-    <t>71,39%</t>
-  </si>
-  <si>
-    <t>68,31%</t>
-  </si>
-  <si>
-    <t>74,48%</t>
-  </si>
-  <si>
-    <t>71,69%</t>
-  </si>
-  <si>
-    <t>69,38%</t>
-  </si>
-  <si>
-    <t>73,88%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>68,01%</t>
-  </si>
-  <si>
-    <t>66,25%</t>
-  </si>
-  <si>
-    <t>69,94%</t>
-  </si>
-  <si>
-    <t>67,94%</t>
-  </si>
-  <si>
-    <t>66,0%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
-  </si>
-  <si>
-    <t>67,97%</t>
-  </si>
-  <si>
-    <t>66,64%</t>
-  </si>
-  <si>
-    <t>69,22%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por un empaste en 2012 (Tasa respuesta: 86,78%)</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>39,72%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>74,23%</t>
-  </si>
-  <si>
-    <t>64,5%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>70,44%</t>
-  </si>
-  <si>
-    <t>60,28%</t>
-  </si>
-  <si>
-    <t>79,81%</t>
-  </si>
-  <si>
-    <t>72,4%</t>
-  </si>
-  <si>
-    <t>65,29%</t>
-  </si>
-  <si>
-    <t>78,38%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>82,25%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>82,17%</t>
+  </si>
+  <si>
+    <t>76,58%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>76,01%</t>
+  </si>
+  <si>
+    <t>71,34%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>79,38%</t>
+  </si>
+  <si>
+    <t>85,05%</t>
+  </si>
+  <si>
+    <t>79,27%</t>
+  </si>
+  <si>
+    <t>76,72%</t>
+  </si>
+  <si>
+    <t>81,85%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
   </si>
   <si>
     <t>24,23%</t>
   </si>
   <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>71,73%</t>
-  </si>
-  <si>
-    <t>67,86%</t>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>76,12%</t>
+  </si>
+  <si>
+    <t>72,09%</t>
+  </si>
+  <si>
+    <t>79,7%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
   </si>
   <si>
     <t>75,77%</t>
   </si>
   <si>
-    <t>73,39%</t>
-  </si>
-  <si>
-    <t>69,25%</t>
-  </si>
-  <si>
-    <t>77,26%</t>
-  </si>
-  <si>
-    <t>72,59%</t>
-  </si>
-  <si>
-    <t>69,68%</t>
-  </si>
-  <si>
-    <t>75,28%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>68,16%</t>
-  </si>
-  <si>
-    <t>64,67%</t>
-  </si>
-  <si>
-    <t>71,34%</t>
-  </si>
-  <si>
-    <t>69,86%</t>
-  </si>
-  <si>
-    <t>66,51%</t>
-  </si>
-  <si>
-    <t>73,05%</t>
-  </si>
-  <si>
-    <t>69,02%</t>
-  </si>
-  <si>
-    <t>66,69%</t>
-  </si>
-  <si>
-    <t>71,29%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>69,26%</t>
-  </si>
-  <si>
-    <t>65,19%</t>
-  </si>
-  <si>
-    <t>73,17%</t>
-  </si>
-  <si>
-    <t>69,62%</t>
-  </si>
-  <si>
-    <t>65,92%</t>
-  </si>
-  <si>
-    <t>69,44%</t>
-  </si>
-  <si>
-    <t>66,66%</t>
-  </si>
-  <si>
-    <t>71,96%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>70,83%</t>
-  </si>
-  <si>
-    <t>67,51%</t>
-  </si>
-  <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>71,9%</t>
-  </si>
-  <si>
-    <t>68,89%</t>
-  </si>
-  <si>
-    <t>74,84%</t>
-  </si>
-  <si>
-    <t>71,4%</t>
-  </si>
-  <si>
-    <t>69,27%</t>
-  </si>
-  <si>
-    <t>73,53%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>69,97%</t>
-  </si>
-  <si>
-    <t>68,21%</t>
-  </si>
-  <si>
-    <t>71,78%</t>
-  </si>
-  <si>
-    <t>71,04%</t>
-  </si>
-  <si>
-    <t>69,24%</t>
-  </si>
-  <si>
-    <t>72,58%</t>
-  </si>
-  <si>
-    <t>70,52%</t>
-  </si>
-  <si>
-    <t>69,29%</t>
-  </si>
-  <si>
-    <t>71,71%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por un empaste en 2016 (Tasa respuesta: 80,03%)</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>84,08%</t>
-  </si>
-  <si>
-    <t>75,91%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>78,52%</t>
-  </si>
-  <si>
-    <t>69,54%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>75,21%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>66,89%</t>
-  </si>
-  <si>
-    <t>62,45%</t>
-  </si>
-  <si>
-    <t>71,81%</t>
-  </si>
-  <si>
-    <t>73,02%</t>
-  </si>
-  <si>
-    <t>68,63%</t>
-  </si>
-  <si>
-    <t>77,04%</t>
-  </si>
-  <si>
-    <t>70,02%</t>
-  </si>
-  <si>
-    <t>67,01%</t>
-  </si>
-  <si>
-    <t>72,88%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>73,82%</t>
-  </si>
-  <si>
-    <t>70,4%</t>
-  </si>
-  <si>
-    <t>76,95%</t>
-  </si>
-  <si>
-    <t>73,47%</t>
-  </si>
-  <si>
-    <t>70,36%</t>
-  </si>
-  <si>
-    <t>76,29%</t>
-  </si>
-  <si>
-    <t>73,64%</t>
-  </si>
-  <si>
-    <t>71,51%</t>
-  </si>
-  <si>
-    <t>75,8%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>66,68%</t>
-  </si>
-  <si>
-    <t>62,79%</t>
-  </si>
-  <si>
-    <t>71,14%</t>
-  </si>
-  <si>
-    <t>68,05%</t>
-  </si>
-  <si>
-    <t>64,17%</t>
-  </si>
-  <si>
-    <t>72,0%</t>
-  </si>
-  <si>
-    <t>67,39%</t>
-  </si>
-  <si>
-    <t>64,38%</t>
-  </si>
-  <si>
-    <t>69,9%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>76,62%</t>
-  </si>
-  <si>
-    <t>73,06%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>77,47%</t>
-  </si>
-  <si>
-    <t>74,41%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
-  </si>
-  <si>
-    <t>77,07%</t>
-  </si>
-  <si>
-    <t>74,88%</t>
-  </si>
-  <si>
-    <t>79,13%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>72,43%</t>
-  </si>
-  <si>
-    <t>70,57%</t>
-  </si>
-  <si>
-    <t>74,21%</t>
-  </si>
-  <si>
-    <t>73,71%</t>
-  </si>
-  <si>
-    <t>71,99%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>71,76%</t>
-  </si>
-  <si>
-    <t>74,31%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por un empaste en 2023 (Tasa respuesta: 96,85%)</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>82,08%</t>
-  </si>
-  <si>
-    <t>73,23%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>82,25%</t>
-  </si>
-  <si>
-    <t>75,82%</t>
-  </si>
-  <si>
-    <t>86,91%</t>
-  </si>
-  <si>
-    <t>82,17%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>76,01%</t>
-  </si>
-  <si>
-    <t>71,27%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>79,54%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
-  </si>
-  <si>
-    <t>76,58%</t>
-  </si>
-  <si>
-    <t>81,74%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>82,81%</t>
-  </si>
-  <si>
-    <t>80,64%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>79,52%</t>
-  </si>
-  <si>
-    <t>80,19%</t>
-  </si>
-  <si>
-    <t>75,58%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
+    <t>87,08%</t>
   </si>
   <si>
     <t>78,36%</t>
   </si>
   <si>
-    <t>75,14%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
+    <t>75,53%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
   </si>
   <si>
     <t>15,55%</t>
   </si>
   <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
   </si>
   <si>
     <t>15,46%</t>
   </si>
   <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
   </si>
   <si>
     <t>15,5%</t>
   </si>
   <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
   </si>
   <si>
     <t>84,45%</t>
   </si>
   <si>
-    <t>81,75%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
+    <t>81,68%</t>
+  </si>
+  <si>
+    <t>87,02%</t>
   </si>
   <si>
     <t>84,54%</t>
   </si>
   <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
   </si>
   <si>
     <t>84,5%</t>
   </si>
   <si>
-    <t>82,68%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
   </si>
   <si>
     <t>17,38%</t>
   </si>
   <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
   </si>
   <si>
     <t>18,01%</t>
   </si>
   <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>79,58%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>79,46%</t>
+  </si>
+  <si>
+    <t>82,94%</t>
   </si>
   <si>
     <t>82,62%</t>
   </si>
   <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
   </si>
   <si>
     <t>81,99%</t>
   </si>
   <si>
-    <t>80,89%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
+    <t>80,86%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
   </si>
 </sst>
 </file>
@@ -1785,7 +1743,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D014771-7043-482E-949C-AABD869D7E9E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB320C2-0068-4567-8EED-C27BFAC38C12}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1906,7 +1864,7 @@
         <v>26</v>
       </c>
       <c r="D4" s="7">
-        <v>29167</v>
+        <v>29166</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2008,7 +1966,7 @@
         <v>70</v>
       </c>
       <c r="D6" s="7">
-        <v>77766</v>
+        <v>77765</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2240,7 +2198,7 @@
         <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="M10" s="7">
         <v>449</v>
@@ -2249,13 +2207,13 @@
         <v>479910</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2270,13 +2228,13 @@
         <v>505788</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>509</v>
@@ -2285,13 +2243,13 @@
         <v>540656</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>975</v>
@@ -2300,13 +2258,13 @@
         <v>1046444</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2362,7 +2320,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2374,13 +2332,13 @@
         <v>192948</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>193</v>
@@ -2389,13 +2347,13 @@
         <v>189795</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>375</v>
@@ -2404,13 +2362,13 @@
         <v>382742</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2425,13 +2383,13 @@
         <v>351100</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="H14" s="7">
         <v>403</v>
@@ -2848,7 +2806,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F083DC35-BBE1-4BC4-9101-5AD989072874}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5324AA8F-DFA9-4ED3-A976-FF441134818B}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2987,13 +2945,13 @@
         <v>27729</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M4" s="7">
         <v>52</v>
@@ -3002,13 +2960,13 @@
         <v>53692</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>132</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>133</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3023,13 +2981,13 @@
         <v>74790</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H5" s="7">
         <v>57</v>
@@ -3038,13 +2996,13 @@
         <v>66089</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>137</v>
+        <v>63</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="M5" s="7">
         <v>135</v>
@@ -3053,13 +3011,13 @@
         <v>140880</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>141</v>
+        <v>83</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3127,13 +3085,13 @@
         <v>142829</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H7" s="7">
         <v>137</v>
@@ -3142,13 +3100,13 @@
         <v>144220</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="M7" s="7">
         <v>273</v>
@@ -3157,13 +3115,13 @@
         <v>287049</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3178,13 +3136,13 @@
         <v>362368</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="H8" s="7">
         <v>373</v>
@@ -3193,13 +3151,13 @@
         <v>397763</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="M8" s="7">
         <v>713</v>
@@ -3208,13 +3166,13 @@
         <v>760131</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3282,13 +3240,13 @@
         <v>275771</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H10" s="7">
         <v>250</v>
@@ -3297,13 +3255,13 @@
         <v>270686</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="M10" s="7">
         <v>501</v>
@@ -3312,13 +3270,13 @@
         <v>546458</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3333,13 +3291,13 @@
         <v>590307</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H11" s="7">
         <v>571</v>
@@ -3348,13 +3306,13 @@
         <v>627294</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="M11" s="7">
         <v>1118</v>
@@ -3363,13 +3321,13 @@
         <v>1217600</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3425,7 +3383,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3437,13 +3395,13 @@
         <v>195246</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H13" s="7">
         <v>190</v>
@@ -3452,13 +3410,13 @@
         <v>205821</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>15</v>
+        <v>179</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="M13" s="7">
         <v>372</v>
@@ -3467,13 +3425,13 @@
         <v>401067</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3488,13 +3446,13 @@
         <v>439834</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="H14" s="7">
         <v>424</v>
@@ -3503,13 +3461,13 @@
         <v>471680</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>26</v>
+        <v>189</v>
       </c>
       <c r="M14" s="7">
         <v>823</v>
@@ -3518,13 +3476,13 @@
         <v>911514</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3592,13 +3550,13 @@
         <v>234757</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="H16" s="7">
         <v>253</v>
@@ -3607,13 +3565,13 @@
         <v>262261</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="M16" s="7">
         <v>485</v>
@@ -3622,13 +3580,13 @@
         <v>497018</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3643,13 +3601,13 @@
         <v>570006</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="H17" s="7">
         <v>634</v>
@@ -3658,13 +3616,13 @@
         <v>670940</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="M17" s="7">
         <v>1175</v>
@@ -3673,13 +3631,13 @@
         <v>1240946</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3747,13 +3705,13 @@
         <v>874567</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="H19" s="7">
         <v>855</v>
@@ -3762,13 +3720,13 @@
         <v>910717</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="M19" s="7">
         <v>1683</v>
@@ -3777,13 +3735,13 @@
         <v>1785284</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3798,43 +3756,43 @@
         <v>2037304</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="H20" s="7">
         <v>2059</v>
       </c>
       <c r="I20" s="7">
-        <v>2233766</v>
+        <v>2233767</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="M20" s="7">
         <v>3964</v>
       </c>
       <c r="N20" s="7">
-        <v>4271071</v>
+        <v>4271070</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3861,7 +3819,7 @@
         <v>2914</v>
       </c>
       <c r="I21" s="7">
-        <v>3144483</v>
+        <v>3144484</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -3876,7 +3834,7 @@
         <v>5647</v>
       </c>
       <c r="N21" s="7">
-        <v>6056355</v>
+        <v>6056354</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -3911,7 +3869,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2139820B-CB4B-4BAD-BE2D-F691C0109261}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{341F1141-302B-4725-B9A0-5C60ADA7833A}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3928,7 +3886,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4035,13 +3993,13 @@
         <v>15721</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="H4" s="7">
         <v>22</v>
@@ -4050,13 +4008,13 @@
         <v>21690</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="M4" s="7">
         <v>37</v>
@@ -4065,13 +4023,13 @@
         <v>37411</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>240</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4086,13 +4044,13 @@
         <v>83054</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H5" s="7">
         <v>80</v>
@@ -4101,13 +4059,13 @@
         <v>79311</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M5" s="7">
         <v>160</v>
@@ -4116,13 +4074,13 @@
         <v>162365</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>248</v>
+        <v>98</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4190,13 +4148,13 @@
         <v>141106</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="H7" s="7">
         <v>121</v>
@@ -4205,13 +4163,13 @@
         <v>119605</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="M7" s="7">
         <v>256</v>
@@ -4220,13 +4178,13 @@
         <v>260711</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4241,13 +4199,13 @@
         <v>285112</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="H8" s="7">
         <v>321</v>
@@ -4256,13 +4214,13 @@
         <v>323756</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="M8" s="7">
         <v>598</v>
@@ -4271,13 +4229,13 @@
         <v>608869</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4345,13 +4303,13 @@
         <v>213721</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="H10" s="7">
         <v>225</v>
@@ -4360,13 +4318,13 @@
         <v>229863</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="M10" s="7">
         <v>424</v>
@@ -4375,13 +4333,13 @@
         <v>443584</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>274</v>
+        <v>200</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4396,13 +4354,13 @@
         <v>602625</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="H11" s="7">
         <v>593</v>
@@ -4411,13 +4369,13 @@
         <v>636510</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="M11" s="7">
         <v>1148</v>
@@ -4426,13 +4384,13 @@
         <v>1239135</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>283</v>
+        <v>210</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4488,7 +4446,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4500,13 +4458,13 @@
         <v>183383</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="H13" s="7">
         <v>177</v>
@@ -4515,13 +4473,13 @@
         <v>185198</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="M13" s="7">
         <v>341</v>
@@ -4530,13 +4488,13 @@
         <v>368581</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4551,13 +4509,13 @@
         <v>366977</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="H14" s="7">
         <v>375</v>
@@ -4566,13 +4524,13 @@
         <v>394540</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="M14" s="7">
         <v>712</v>
@@ -4581,13 +4539,13 @@
         <v>761517</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4655,13 +4613,13 @@
         <v>180672</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>306</v>
+        <v>200</v>
       </c>
       <c r="H16" s="7">
         <v>185</v>
@@ -4670,13 +4628,13 @@
         <v>197551</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="M16" s="7">
         <v>363</v>
@@ -4685,13 +4643,13 @@
         <v>378223</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4706,13 +4664,13 @@
         <v>591963</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>314</v>
+        <v>210</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="H17" s="7">
         <v>628</v>
@@ -4721,13 +4679,13 @@
         <v>679290</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="M17" s="7">
         <v>1218</v>
@@ -4736,13 +4694,13 @@
         <v>1271253</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4810,13 +4768,13 @@
         <v>734604</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="H19" s="7">
         <v>730</v>
@@ -4825,13 +4783,13 @@
         <v>753907</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="M19" s="7">
         <v>1421</v>
@@ -4840,13 +4798,13 @@
         <v>1488511</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4861,13 +4819,13 @@
         <v>1929730</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="H20" s="7">
         <v>1997</v>
@@ -4876,28 +4834,28 @@
         <v>2113408</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="M20" s="7">
         <v>3836</v>
       </c>
       <c r="N20" s="7">
-        <v>4043137</v>
+        <v>4043138</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4939,7 +4897,7 @@
         <v>5257</v>
       </c>
       <c r="N21" s="7">
-        <v>5531648</v>
+        <v>5531649</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -4974,7 +4932,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78785E37-E358-417E-936B-3F93BCFAF741}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EEA4529-64C5-4579-949C-55785AE0617B}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4991,7 +4949,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5098,13 +5056,13 @@
         <v>18006</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="H4" s="7">
         <v>41</v>
@@ -5113,13 +5071,13 @@
         <v>22777</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>346</v>
+        <v>301</v>
       </c>
       <c r="M4" s="7">
         <v>59</v>
@@ -5128,13 +5086,13 @@
         <v>40783</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5149,13 +5107,13 @@
         <v>82468</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="H5" s="7">
         <v>197</v>
@@ -5164,13 +5122,13 @@
         <v>105509</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>354</v>
+        <v>308</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="M5" s="7">
         <v>294</v>
@@ -5179,13 +5137,13 @@
         <v>187977</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5253,13 +5211,13 @@
         <v>126221</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="H7" s="7">
         <v>168</v>
@@ -5268,13 +5226,13 @@
         <v>100813</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="M7" s="7">
         <v>288</v>
@@ -5283,13 +5241,13 @@
         <v>227034</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5304,13 +5262,13 @@
         <v>399928</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="H8" s="7">
         <v>790</v>
@@ -5319,13 +5277,13 @@
         <v>468014</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="M8" s="7">
         <v>1251</v>
@@ -5334,13 +5292,13 @@
         <v>867942</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5408,13 +5366,13 @@
         <v>156426</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>379</v>
+        <v>352</v>
       </c>
       <c r="H10" s="7">
         <v>267</v>
@@ -5423,13 +5381,13 @@
         <v>179181</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="M10" s="7">
         <v>416</v>
@@ -5438,13 +5396,13 @@
         <v>335607</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5459,13 +5417,13 @@
         <v>859170</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>387</v>
+        <v>362</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="H11" s="7">
         <v>1219</v>
@@ -5474,13 +5432,13 @@
         <v>862919</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>390</v>
+        <v>374</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
       <c r="M11" s="7">
         <v>2006</v>
@@ -5489,13 +5447,13 @@
         <v>1722089</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>393</v>
+        <v>377</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5551,7 +5509,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5563,13 +5521,13 @@
         <v>169199</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>395</v>
+        <v>379</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>251</v>
+        <v>381</v>
       </c>
       <c r="H13" s="7">
         <v>220</v>
@@ -5578,13 +5536,13 @@
         <v>170784</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="M13" s="7">
         <v>364</v>
@@ -5593,13 +5551,13 @@
         <v>339984</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5614,13 +5572,13 @@
         <v>539342</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>261</v>
+        <v>389</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="H14" s="7">
         <v>804</v>
@@ -5629,13 +5587,13 @@
         <v>691404</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="M14" s="7">
         <v>1315</v>
@@ -5644,13 +5602,13 @@
         <v>1230746</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5718,13 +5676,13 @@
         <v>143835</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="H16" s="7">
         <v>245</v>
@@ -5733,13 +5691,13 @@
         <v>172312</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="M16" s="7">
         <v>383</v>
@@ -5748,13 +5706,13 @@
         <v>316147</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5769,13 +5727,13 @@
         <v>781271</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="H17" s="7">
         <v>1265</v>
@@ -5784,13 +5742,13 @@
         <v>942464</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>424</v>
+        <v>410</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="M17" s="7">
         <v>2092</v>
@@ -5799,13 +5757,13 @@
         <v>1723736</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5873,13 +5831,13 @@
         <v>613687</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>430</v>
+        <v>416</v>
       </c>
       <c r="H19" s="7">
         <v>941</v>
@@ -5888,13 +5846,13 @@
         <v>645867</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="M19" s="7">
         <v>1510</v>
@@ -5903,13 +5861,13 @@
         <v>1259555</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>436</v>
+        <v>422</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5924,13 +5882,13 @@
         <v>2662179</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="H20" s="7">
         <v>4275</v>
@@ -5939,13 +5897,13 @@
         <v>3070311</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="M20" s="7">
         <v>6958</v>
@@ -5954,13 +5912,13 @@
         <v>5732489</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P19C03-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P19C03-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DFC34103-A3DA-4886-9B56-9A85FE0105FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{32DC64F7-871F-48CD-957E-C7B5810983F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{44F12977-A731-4A8D-8D53-ECE7277607BC}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{5C397B2C-E565-4D75-8A49-A54EDF29A156}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="366">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por un empaste en 2007 (Tasa respuesta: 78,1%)</t>
   </si>
@@ -68,168 +68,117 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>49,03%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>43,8%</t>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>39,68%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>62,49%</t>
-  </si>
-  <si>
-    <t>50,97%</t>
-  </si>
-  <si>
-    <t>73,16%</t>
-  </si>
-  <si>
-    <t>64,64%</t>
-  </si>
-  <si>
-    <t>54,02%</t>
-  </si>
-  <si>
-    <t>72,87%</t>
-  </si>
-  <si>
-    <t>63,67%</t>
-  </si>
-  <si>
-    <t>56,2%</t>
-  </si>
-  <si>
-    <t>70,42%</t>
+    <t>62,92%</t>
+  </si>
+  <si>
+    <t>58,29%</t>
+  </si>
+  <si>
+    <t>67,06%</t>
+  </si>
+  <si>
+    <t>64,22%</t>
+  </si>
+  <si>
+    <t>60,32%</t>
+  </si>
+  <si>
+    <t>67,95%</t>
+  </si>
+  <si>
+    <t>63,61%</t>
+  </si>
+  <si>
+    <t>60,61%</t>
+  </si>
+  <si>
+    <t>66,28%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>42,23%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>40,24%</t>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
   </si>
   <si>
     <t>36,4%</t>
   </si>
   <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>39,67%</t>
-  </si>
-  <si>
-    <t>63,01%</t>
-  </si>
-  <si>
-    <t>57,77%</t>
-  </si>
-  <si>
-    <t>67,5%</t>
-  </si>
-  <si>
-    <t>64,13%</t>
-  </si>
-  <si>
-    <t>59,76%</t>
-  </si>
-  <si>
-    <t>68,81%</t>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>70,04%</t>
+  </si>
+  <si>
+    <t>66,59%</t>
+  </si>
+  <si>
+    <t>73,81%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
   </si>
   <si>
     <t>63,6%</t>
   </si>
   <si>
-    <t>60,33%</t>
-  </si>
-  <si>
-    <t>66,87%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>70,04%</t>
-  </si>
-  <si>
-    <t>66,59%</t>
-  </si>
-  <si>
-    <t>73,81%</t>
-  </si>
-  <si>
-    <t>67,23%</t>
-  </si>
-  <si>
     <t>70,44%</t>
   </si>
   <si>
@@ -242,7 +191,7 @@
     <t>70,9%</t>
   </si>
   <si>
-    <t>&gt;50.000hab</t>
+    <t>&gt;50.000 hab</t>
   </si>
   <si>
     <t>35,47%</t>
@@ -416,100 +365,58 @@
     <t>Población según si el motivo por su última visita al dentista fue por un empaste en 2012 (Tasa respuesta: 86,78%)</t>
   </si>
   <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>40,97%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>74,23%</t>
-  </si>
-  <si>
-    <t>65,82%</t>
-  </si>
-  <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>59,03%</t>
-  </si>
-  <si>
-    <t>78,77%</t>
-  </si>
-  <si>
-    <t>72,4%</t>
-  </si>
-  <si>
-    <t>78,28%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>71,73%</t>
-  </si>
-  <si>
-    <t>67,29%</t>
-  </si>
-  <si>
-    <t>75,49%</t>
-  </si>
-  <si>
-    <t>73,39%</t>
-  </si>
-  <si>
-    <t>69,27%</t>
-  </si>
-  <si>
-    <t>77,03%</t>
-  </si>
-  <si>
-    <t>72,59%</t>
-  </si>
-  <si>
-    <t>69,91%</t>
-  </si>
-  <si>
-    <t>75,22%</t>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>68,21%</t>
+  </si>
+  <si>
+    <t>75,33%</t>
+  </si>
+  <si>
+    <t>72,96%</t>
+  </si>
+  <si>
+    <t>69,08%</t>
+  </si>
+  <si>
+    <t>76,27%</t>
+  </si>
+  <si>
+    <t>72,56%</t>
+  </si>
+  <si>
+    <t>69,75%</t>
+  </si>
+  <si>
+    <t>75,09%</t>
   </si>
   <si>
     <t>31,84%</t>
@@ -731,129 +638,87 @@
     <t>Población según si el motivo por su última visita al dentista fue por un empaste en 2016 (Tasa respuesta: 80,03%)</t>
   </si>
   <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>84,08%</t>
-  </si>
-  <si>
-    <t>75,54%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>78,52%</t>
-  </si>
-  <si>
-    <t>70,09%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>38,35%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>70,13%</t>
+  </si>
+  <si>
+    <t>65,74%</t>
+  </si>
+  <si>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>74,04%</t>
+  </si>
+  <si>
+    <t>70,03%</t>
+  </si>
+  <si>
+    <t>77,67%</t>
+  </si>
+  <si>
+    <t>72,12%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
   </si>
   <si>
     <t>23,12%</t>
   </si>
   <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>66,89%</t>
-  </si>
-  <si>
-    <t>61,65%</t>
-  </si>
-  <si>
-    <t>71,16%</t>
-  </si>
-  <si>
-    <t>73,02%</t>
-  </si>
-  <si>
-    <t>68,51%</t>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>73,82%</t>
+  </si>
+  <si>
+    <t>70,58%</t>
   </si>
   <si>
     <t>76,88%</t>
   </si>
   <si>
-    <t>70,02%</t>
-  </si>
-  <si>
-    <t>66,95%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>73,82%</t>
-  </si>
-  <si>
-    <t>70,58%</t>
-  </si>
-  <si>
     <t>73,47%</t>
   </si>
   <si>
@@ -983,12 +848,6 @@
     <t>26,29%</t>
   </si>
   <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
     <t>26,91%</t>
   </si>
   <si>
@@ -1010,12 +869,6 @@
     <t>73,71%</t>
   </si>
   <si>
-    <t>72,12%</t>
-  </si>
-  <si>
-    <t>75,33%</t>
-  </si>
-  <si>
     <t>73,09%</t>
   </si>
   <si>
@@ -1028,310 +881,262 @@
     <t>Población según si el motivo por su última visita al dentista fue por un empaste en 2023 (Tasa respuesta: 96,85%)</t>
   </si>
   <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>82,08%</t>
-  </si>
-  <si>
-    <t>73,4%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>82,25%</t>
-  </si>
-  <si>
-    <t>87,2%</t>
-  </si>
-  <si>
-    <t>82,17%</t>
-  </si>
-  <si>
-    <t>76,58%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>76,01%</t>
-  </si>
-  <si>
-    <t>71,34%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>79,38%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
-  </si>
-  <si>
-    <t>76,72%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>82,81%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>82,05%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>72,09%</t>
-  </si>
-  <si>
-    <t>79,7%</t>
-  </si>
-  <si>
-    <t>80,19%</t>
-  </si>
-  <si>
-    <t>75,77%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>78,36%</t>
-  </si>
-  <si>
-    <t>75,53%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
   </si>
   <si>
     <t>15,5%</t>
   </si>
   <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>81,68%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
-  </si>
-  <si>
-    <t>84,54%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
+  </si>
+  <si>
+    <t>71,58%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>79,52%</t>
   </si>
   <si>
     <t>84,5%</t>
   </si>
   <si>
-    <t>82,89%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>79,46%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>81,28%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>80,86%</t>
-  </si>
-  <si>
-    <t>83,19%</t>
+    <t>79,4%</t>
+  </si>
+  <si>
+    <t>77,02%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>82,5%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>75,73%</t>
+  </si>
+  <si>
+    <t>79,49%</t>
+  </si>
+  <si>
+    <t>79,87%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>78,1%</t>
+  </si>
+  <si>
+    <t>73,18%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>85,22%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>83,02%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>79,94%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>82,31%</t>
+  </si>
+  <si>
+    <t>80,56%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
   </si>
 </sst>
 </file>
@@ -1743,8 +1548,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB320C2-0068-4567-8EED-C27BFAC38C12}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FACB567-041A-4B1A-ABBA-BA0A2DBAEB8C}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1861,10 +1666,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>26</v>
+        <v>174</v>
       </c>
       <c r="D4" s="7">
-        <v>29166</v>
+        <v>177168</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1876,10 +1681,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>38</v>
+        <v>192</v>
       </c>
       <c r="I4" s="7">
-        <v>33500</v>
+        <v>192519</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1891,10 +1696,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>64</v>
+        <v>366</v>
       </c>
       <c r="N4" s="7">
-        <v>62666</v>
+        <v>369686</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1912,10 +1717,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>44</v>
+        <v>296</v>
       </c>
       <c r="D5" s="7">
-        <v>48599</v>
+        <v>300669</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1927,10 +1732,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>69</v>
+        <v>354</v>
       </c>
       <c r="I5" s="7">
-        <v>61248</v>
+        <v>345585</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1942,10 +1747,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>113</v>
+        <v>650</v>
       </c>
       <c r="N5" s="7">
-        <v>109848</v>
+        <v>646255</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1963,10 +1768,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>70</v>
+        <v>470</v>
       </c>
       <c r="D6" s="7">
-        <v>77765</v>
+        <v>477837</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1978,10 +1783,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>107</v>
+        <v>546</v>
       </c>
       <c r="I6" s="7">
-        <v>94748</v>
+        <v>538104</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1993,10 +1798,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>177</v>
+        <v>1016</v>
       </c>
       <c r="N6" s="7">
-        <v>172514</v>
+        <v>1015941</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2016,10 +1821,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>148</v>
+        <v>202</v>
       </c>
       <c r="D7" s="7">
-        <v>148001</v>
+        <v>216340</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -2031,10 +1836,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>154</v>
+        <v>247</v>
       </c>
       <c r="I7" s="7">
-        <v>159019</v>
+        <v>263570</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -2046,10 +1851,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>302</v>
+        <v>449</v>
       </c>
       <c r="N7" s="7">
-        <v>307020</v>
+        <v>479910</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -2067,10 +1872,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>252</v>
+        <v>466</v>
       </c>
       <c r="D8" s="7">
-        <v>252071</v>
+        <v>505788</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -2082,10 +1887,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>285</v>
+        <v>509</v>
       </c>
       <c r="I8" s="7">
-        <v>284336</v>
+        <v>540656</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -2097,10 +1902,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>537</v>
+        <v>975</v>
       </c>
       <c r="N8" s="7">
-        <v>536407</v>
+        <v>1046444</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2118,10 +1923,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>400</v>
+        <v>668</v>
       </c>
       <c r="D9" s="7">
-        <v>400072</v>
+        <v>722128</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2133,10 +1938,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>439</v>
+        <v>756</v>
       </c>
       <c r="I9" s="7">
-        <v>443355</v>
+        <v>804226</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2148,10 +1953,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>839</v>
+        <v>1424</v>
       </c>
       <c r="N9" s="7">
-        <v>843427</v>
+        <v>1526354</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2171,10 +1976,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="D10" s="7">
-        <v>216340</v>
+        <v>192948</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2186,10 +1991,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>247</v>
+        <v>193</v>
       </c>
       <c r="I10" s="7">
-        <v>263570</v>
+        <v>189795</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2198,22 +2003,22 @@
         <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>449</v>
+        <v>375</v>
       </c>
       <c r="N10" s="7">
-        <v>479910</v>
+        <v>382742</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2222,49 +2027,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>466</v>
+        <v>332</v>
       </c>
       <c r="D11" s="7">
-        <v>505788</v>
+        <v>351100</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>509</v>
+        <v>403</v>
       </c>
       <c r="I11" s="7">
-        <v>540656</v>
+        <v>394814</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>975</v>
+        <v>735</v>
       </c>
       <c r="N11" s="7">
-        <v>1046444</v>
+        <v>745915</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2273,10 +2078,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>668</v>
+        <v>514</v>
       </c>
       <c r="D12" s="7">
-        <v>722128</v>
+        <v>544048</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2288,10 +2093,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>756</v>
+        <v>596</v>
       </c>
       <c r="I12" s="7">
-        <v>804226</v>
+        <v>584609</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2303,10 +2108,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1424</v>
+        <v>1110</v>
       </c>
       <c r="N12" s="7">
-        <v>1526354</v>
+        <v>1128657</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2320,55 +2125,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>182</v>
+        <v>210</v>
       </c>
       <c r="D13" s="7">
-        <v>192948</v>
+        <v>198484</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>193</v>
+        <v>224</v>
       </c>
       <c r="I13" s="7">
-        <v>189795</v>
+        <v>232921</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>375</v>
+        <v>434</v>
       </c>
       <c r="N13" s="7">
-        <v>382742</v>
+        <v>431405</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2377,49 +2182,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>332</v>
+        <v>544</v>
       </c>
       <c r="D14" s="7">
-        <v>351100</v>
+        <v>511204</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>403</v>
+        <v>557</v>
       </c>
       <c r="I14" s="7">
-        <v>394814</v>
+        <v>581077</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>735</v>
+        <v>1101</v>
       </c>
       <c r="N14" s="7">
-        <v>745915</v>
+        <v>1092281</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2428,10 +2233,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>514</v>
+        <v>754</v>
       </c>
       <c r="D15" s="7">
-        <v>544048</v>
+        <v>709688</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2443,10 +2248,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>596</v>
+        <v>781</v>
       </c>
       <c r="I15" s="7">
-        <v>584609</v>
+        <v>813998</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2458,10 +2263,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1110</v>
+        <v>1535</v>
       </c>
       <c r="N15" s="7">
-        <v>1128657</v>
+        <v>1523686</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2475,55 +2280,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>210</v>
+        <v>768</v>
       </c>
       <c r="D16" s="7">
-        <v>198484</v>
+        <v>784940</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H16" s="7">
-        <v>224</v>
+        <v>856</v>
       </c>
       <c r="I16" s="7">
-        <v>232921</v>
+        <v>878804</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M16" s="7">
-        <v>434</v>
+        <v>1624</v>
       </c>
       <c r="N16" s="7">
-        <v>431405</v>
+        <v>1663744</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2532,49 +2337,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>544</v>
+        <v>1638</v>
       </c>
       <c r="D17" s="7">
-        <v>511204</v>
+        <v>1668761</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H17" s="7">
-        <v>557</v>
+        <v>1823</v>
       </c>
       <c r="I17" s="7">
-        <v>581077</v>
+        <v>1862133</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7">
-        <v>1101</v>
+        <v>3461</v>
       </c>
       <c r="N17" s="7">
-        <v>1092281</v>
+        <v>3530894</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2583,10 +2388,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>754</v>
+        <v>2406</v>
       </c>
       <c r="D18" s="7">
-        <v>709688</v>
+        <v>2453701</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2598,10 +2403,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>781</v>
+        <v>2679</v>
       </c>
       <c r="I18" s="7">
-        <v>813998</v>
+        <v>2740937</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2613,10 +2418,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1535</v>
+        <v>5085</v>
       </c>
       <c r="N18" s="7">
-        <v>1523686</v>
+        <v>5194638</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2629,171 +2434,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>768</v>
-      </c>
-      <c r="D19" s="7">
-        <v>784940</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F19" s="7" t="s">
+      <c r="A19" t="s">
         <v>106</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H19" s="7">
-        <v>856</v>
-      </c>
-      <c r="I19" s="7">
-        <v>878804</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1624</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1663744</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1638</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1668761</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1823</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1862133</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="M20" s="7">
-        <v>3461</v>
-      </c>
-      <c r="N20" s="7">
-        <v>3530894</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>2406</v>
-      </c>
-      <c r="D21" s="7">
-        <v>2453701</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>2679</v>
-      </c>
-      <c r="I21" s="7">
-        <v>2740937</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>5085</v>
-      </c>
-      <c r="N21" s="7">
-        <v>5194638</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2806,8 +2455,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5324AA8F-DFA9-4ED3-A976-FF441134818B}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24B1311A-FAA0-4A53-B3AF-B6C0C5F982A5}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2823,7 +2472,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2924,49 +2573,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>27</v>
+        <v>163</v>
       </c>
       <c r="D4" s="7">
-        <v>25964</v>
+        <v>168793</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="H4" s="7">
-        <v>25</v>
+        <v>162</v>
       </c>
       <c r="I4" s="7">
-        <v>27729</v>
+        <v>171949</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>55</v>
+        <v>111</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="M4" s="7">
-        <v>52</v>
+        <v>325</v>
       </c>
       <c r="N4" s="7">
-        <v>53692</v>
+        <v>340741</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>74</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2975,49 +2624,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>78</v>
+        <v>418</v>
       </c>
       <c r="D5" s="7">
-        <v>74790</v>
+        <v>437158</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="H5" s="7">
-        <v>57</v>
+        <v>430</v>
       </c>
       <c r="I5" s="7">
-        <v>66089</v>
+        <v>463852</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>63</v>
+        <v>120</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="M5" s="7">
-        <v>135</v>
+        <v>848</v>
       </c>
       <c r="N5" s="7">
-        <v>140880</v>
+        <v>901011</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3026,10 +2675,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>105</v>
+        <v>581</v>
       </c>
       <c r="D6" s="7">
-        <v>100754</v>
+        <v>605951</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3041,10 +2690,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>82</v>
+        <v>592</v>
       </c>
       <c r="I6" s="7">
-        <v>93818</v>
+        <v>635801</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3056,10 +2705,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>187</v>
+        <v>1173</v>
       </c>
       <c r="N6" s="7">
-        <v>194572</v>
+        <v>1241752</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3079,49 +2728,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>136</v>
+        <v>251</v>
       </c>
       <c r="D7" s="7">
-        <v>142829</v>
+        <v>275771</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="H7" s="7">
-        <v>137</v>
+        <v>250</v>
       </c>
       <c r="I7" s="7">
-        <v>144220</v>
+        <v>270686</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="M7" s="7">
-        <v>273</v>
+        <v>501</v>
       </c>
       <c r="N7" s="7">
-        <v>287049</v>
+        <v>546458</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3130,49 +2779,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>340</v>
+        <v>547</v>
       </c>
       <c r="D8" s="7">
-        <v>362368</v>
+        <v>590307</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="H8" s="7">
-        <v>373</v>
+        <v>571</v>
       </c>
       <c r="I8" s="7">
-        <v>397763</v>
+        <v>627294</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="M8" s="7">
-        <v>713</v>
+        <v>1118</v>
       </c>
       <c r="N8" s="7">
-        <v>760131</v>
+        <v>1217600</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3181,10 +2830,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>476</v>
+        <v>798</v>
       </c>
       <c r="D9" s="7">
-        <v>505197</v>
+        <v>866078</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3196,10 +2845,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>510</v>
+        <v>821</v>
       </c>
       <c r="I9" s="7">
-        <v>541983</v>
+        <v>897980</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3211,10 +2860,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>986</v>
+        <v>1619</v>
       </c>
       <c r="N9" s="7">
-        <v>1047180</v>
+        <v>1764058</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3234,49 +2883,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>251</v>
+        <v>182</v>
       </c>
       <c r="D10" s="7">
-        <v>275771</v>
+        <v>195246</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="H10" s="7">
-        <v>250</v>
+        <v>190</v>
       </c>
       <c r="I10" s="7">
-        <v>270686</v>
+        <v>205821</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="M10" s="7">
-        <v>501</v>
+        <v>372</v>
       </c>
       <c r="N10" s="7">
-        <v>546458</v>
+        <v>401067</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3285,49 +2934,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>547</v>
+        <v>399</v>
       </c>
       <c r="D11" s="7">
-        <v>590307</v>
+        <v>439834</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="H11" s="7">
-        <v>571</v>
+        <v>424</v>
       </c>
       <c r="I11" s="7">
-        <v>627294</v>
+        <v>471680</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="M11" s="7">
-        <v>1118</v>
+        <v>823</v>
       </c>
       <c r="N11" s="7">
-        <v>1217600</v>
+        <v>911514</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3336,10 +2985,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>798</v>
+        <v>581</v>
       </c>
       <c r="D12" s="7">
-        <v>866078</v>
+        <v>635080</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3351,10 +3000,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>821</v>
+        <v>614</v>
       </c>
       <c r="I12" s="7">
-        <v>897980</v>
+        <v>677501</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3366,10 +3015,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1619</v>
+        <v>1195</v>
       </c>
       <c r="N12" s="7">
-        <v>1764058</v>
+        <v>1312581</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3383,55 +3032,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>182</v>
+        <v>232</v>
       </c>
       <c r="D13" s="7">
-        <v>195246</v>
+        <v>234757</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="H13" s="7">
-        <v>190</v>
+        <v>253</v>
       </c>
       <c r="I13" s="7">
-        <v>205821</v>
+        <v>262261</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="M13" s="7">
-        <v>372</v>
+        <v>485</v>
       </c>
       <c r="N13" s="7">
-        <v>401067</v>
+        <v>497018</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3440,49 +3089,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>399</v>
+        <v>541</v>
       </c>
       <c r="D14" s="7">
-        <v>439834</v>
+        <v>570006</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="H14" s="7">
-        <v>424</v>
+        <v>634</v>
       </c>
       <c r="I14" s="7">
-        <v>471680</v>
+        <v>670940</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="M14" s="7">
-        <v>823</v>
+        <v>1175</v>
       </c>
       <c r="N14" s="7">
-        <v>911514</v>
+        <v>1240946</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3491,10 +3140,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>581</v>
+        <v>773</v>
       </c>
       <c r="D15" s="7">
-        <v>635080</v>
+        <v>804763</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3506,10 +3155,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>614</v>
+        <v>887</v>
       </c>
       <c r="I15" s="7">
-        <v>677501</v>
+        <v>933201</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3521,10 +3170,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1195</v>
+        <v>1660</v>
       </c>
       <c r="N15" s="7">
-        <v>1312581</v>
+        <v>1737964</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3538,55 +3187,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>232</v>
+        <v>828</v>
       </c>
       <c r="D16" s="7">
-        <v>234757</v>
+        <v>874567</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="H16" s="7">
-        <v>253</v>
+        <v>855</v>
       </c>
       <c r="I16" s="7">
-        <v>262261</v>
+        <v>910717</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="M16" s="7">
-        <v>485</v>
+        <v>1683</v>
       </c>
       <c r="N16" s="7">
-        <v>497018</v>
+        <v>1785284</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3595,49 +3244,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>541</v>
+        <v>1905</v>
       </c>
       <c r="D17" s="7">
-        <v>570006</v>
+        <v>2037304</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="H17" s="7">
-        <v>634</v>
+        <v>2059</v>
       </c>
       <c r="I17" s="7">
-        <v>670940</v>
+        <v>2233766</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="M17" s="7">
-        <v>1175</v>
+        <v>3964</v>
       </c>
       <c r="N17" s="7">
-        <v>1240946</v>
+        <v>4271071</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3646,10 +3295,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>773</v>
+        <v>2733</v>
       </c>
       <c r="D18" s="7">
-        <v>804763</v>
+        <v>2911871</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3661,10 +3310,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>887</v>
+        <v>2914</v>
       </c>
       <c r="I18" s="7">
-        <v>933201</v>
+        <v>3144483</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3676,10 +3325,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1660</v>
+        <v>5647</v>
       </c>
       <c r="N18" s="7">
-        <v>1737964</v>
+        <v>6056355</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3692,171 +3341,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>828</v>
-      </c>
-      <c r="D19" s="7">
-        <v>874567</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="H19" s="7">
-        <v>855</v>
-      </c>
-      <c r="I19" s="7">
-        <v>910717</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1683</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1785284</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1905</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2037304</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2059</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2233767</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="M20" s="7">
-        <v>3964</v>
-      </c>
-      <c r="N20" s="7">
-        <v>4271070</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>2733</v>
-      </c>
-      <c r="D21" s="7">
-        <v>2911871</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>2914</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3144484</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>5647</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6056354</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3869,8 +3362,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{341F1141-302B-4725-B9A0-5C60ADA7833A}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D4BCF5A-1E3C-4816-B47D-3DF782B39BFB}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3886,7 +3379,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>229</v>
+        <v>198</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3987,49 +3480,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="D4" s="7">
-        <v>15721</v>
+        <v>156827</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>230</v>
+        <v>199</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>231</v>
+        <v>200</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>232</v>
+        <v>201</v>
       </c>
       <c r="H4" s="7">
-        <v>22</v>
+        <v>143</v>
       </c>
       <c r="I4" s="7">
-        <v>21690</v>
+        <v>141295</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>233</v>
+        <v>202</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>234</v>
+        <v>203</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>235</v>
+        <v>204</v>
       </c>
       <c r="M4" s="7">
-        <v>37</v>
+        <v>293</v>
       </c>
       <c r="N4" s="7">
-        <v>37411</v>
+        <v>298122</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>236</v>
+        <v>205</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>237</v>
+        <v>206</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>88</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4038,49 +3531,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>80</v>
+        <v>357</v>
       </c>
       <c r="D5" s="7">
-        <v>83054</v>
+        <v>368166</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>238</v>
+        <v>207</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>239</v>
+        <v>208</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>240</v>
+        <v>209</v>
       </c>
       <c r="H5" s="7">
-        <v>80</v>
+        <v>401</v>
       </c>
       <c r="I5" s="7">
-        <v>79311</v>
+        <v>403068</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>241</v>
+        <v>210</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>242</v>
+        <v>211</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>243</v>
+        <v>212</v>
       </c>
       <c r="M5" s="7">
-        <v>160</v>
+        <v>758</v>
       </c>
       <c r="N5" s="7">
-        <v>162365</v>
+        <v>771234</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>244</v>
+        <v>213</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>98</v>
+        <v>196</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>245</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4089,10 +3582,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>95</v>
+        <v>507</v>
       </c>
       <c r="D6" s="7">
-        <v>98775</v>
+        <v>524993</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -4104,10 +3597,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>102</v>
+        <v>544</v>
       </c>
       <c r="I6" s="7">
-        <v>101001</v>
+        <v>544363</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4119,10 +3612,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>197</v>
+        <v>1051</v>
       </c>
       <c r="N6" s="7">
-        <v>199776</v>
+        <v>1069356</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4142,49 +3635,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>135</v>
+        <v>199</v>
       </c>
       <c r="D7" s="7">
-        <v>141106</v>
+        <v>213721</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>248</v>
+        <v>217</v>
       </c>
       <c r="H7" s="7">
-        <v>121</v>
+        <v>225</v>
       </c>
       <c r="I7" s="7">
-        <v>119605</v>
+        <v>229863</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>249</v>
+        <v>218</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>250</v>
+        <v>219</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>251</v>
+        <v>220</v>
       </c>
       <c r="M7" s="7">
-        <v>256</v>
+        <v>424</v>
       </c>
       <c r="N7" s="7">
-        <v>260711</v>
+        <v>443584</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>252</v>
+        <v>169</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>249</v>
+        <v>221</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>253</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4193,49 +3686,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>277</v>
+        <v>555</v>
       </c>
       <c r="D8" s="7">
-        <v>285112</v>
+        <v>602625</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>254</v>
+        <v>223</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>256</v>
+        <v>225</v>
       </c>
       <c r="H8" s="7">
-        <v>321</v>
+        <v>593</v>
       </c>
       <c r="I8" s="7">
-        <v>323756</v>
+        <v>636510</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>257</v>
+        <v>226</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>258</v>
+        <v>227</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>259</v>
+        <v>228</v>
       </c>
       <c r="M8" s="7">
-        <v>598</v>
+        <v>1148</v>
       </c>
       <c r="N8" s="7">
-        <v>608869</v>
+        <v>1239135</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>260</v>
+        <v>179</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>261</v>
+        <v>229</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>257</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4244,10 +3737,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>412</v>
+        <v>754</v>
       </c>
       <c r="D9" s="7">
-        <v>426218</v>
+        <v>816346</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4259,10 +3752,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>442</v>
+        <v>818</v>
       </c>
       <c r="I9" s="7">
-        <v>443361</v>
+        <v>866373</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4274,10 +3767,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>854</v>
+        <v>1572</v>
       </c>
       <c r="N9" s="7">
-        <v>869580</v>
+        <v>1682719</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4297,49 +3790,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>199</v>
+        <v>164</v>
       </c>
       <c r="D10" s="7">
-        <v>213721</v>
+        <v>183383</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>262</v>
+        <v>231</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="H10" s="7">
-        <v>225</v>
+        <v>177</v>
       </c>
       <c r="I10" s="7">
-        <v>229863</v>
+        <v>185198</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>264</v>
+        <v>234</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>265</v>
+        <v>235</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>266</v>
+        <v>236</v>
       </c>
       <c r="M10" s="7">
-        <v>424</v>
+        <v>341</v>
       </c>
       <c r="N10" s="7">
-        <v>443584</v>
+        <v>368581</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>200</v>
+        <v>237</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>267</v>
+        <v>238</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4348,49 +3841,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>555</v>
+        <v>337</v>
       </c>
       <c r="D11" s="7">
-        <v>602625</v>
+        <v>366977</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>269</v>
+        <v>240</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>270</v>
+        <v>241</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="H11" s="7">
-        <v>593</v>
+        <v>375</v>
       </c>
       <c r="I11" s="7">
-        <v>636510</v>
+        <v>394540</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>271</v>
+        <v>243</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>272</v>
+        <v>244</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>273</v>
+        <v>245</v>
       </c>
       <c r="M11" s="7">
-        <v>1148</v>
+        <v>712</v>
       </c>
       <c r="N11" s="7">
-        <v>1239135</v>
+        <v>761517</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>210</v>
+        <v>246</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>274</v>
+        <v>247</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4399,10 +3892,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>754</v>
+        <v>501</v>
       </c>
       <c r="D12" s="7">
-        <v>816346</v>
+        <v>550360</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4414,10 +3907,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>818</v>
+        <v>552</v>
       </c>
       <c r="I12" s="7">
-        <v>866373</v>
+        <v>579738</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4429,10 +3922,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1572</v>
+        <v>1053</v>
       </c>
       <c r="N12" s="7">
-        <v>1682719</v>
+        <v>1130098</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4446,55 +3939,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="D13" s="7">
-        <v>183383</v>
+        <v>180672</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>276</v>
+        <v>249</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>277</v>
+        <v>250</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>278</v>
+        <v>169</v>
       </c>
       <c r="H13" s="7">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="I13" s="7">
-        <v>185198</v>
+        <v>197551</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>279</v>
+        <v>251</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>280</v>
+        <v>252</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>281</v>
+        <v>253</v>
       </c>
       <c r="M13" s="7">
-        <v>341</v>
+        <v>363</v>
       </c>
       <c r="N13" s="7">
-        <v>368581</v>
+        <v>378223</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>283</v>
+        <v>255</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4503,49 +3996,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>337</v>
+        <v>590</v>
       </c>
       <c r="D14" s="7">
-        <v>366977</v>
+        <v>591963</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>285</v>
+        <v>257</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>286</v>
+        <v>179</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>287</v>
+        <v>258</v>
       </c>
       <c r="H14" s="7">
-        <v>375</v>
+        <v>628</v>
       </c>
       <c r="I14" s="7">
-        <v>394540</v>
+        <v>679290</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>288</v>
+        <v>259</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>289</v>
+        <v>260</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>290</v>
+        <v>261</v>
       </c>
       <c r="M14" s="7">
-        <v>712</v>
+        <v>1218</v>
       </c>
       <c r="N14" s="7">
-        <v>761517</v>
+        <v>1271253</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>291</v>
+        <v>262</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>292</v>
+        <v>263</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>293</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4554,10 +4047,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>501</v>
+        <v>768</v>
       </c>
       <c r="D15" s="7">
-        <v>550360</v>
+        <v>772635</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4569,10 +4062,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>552</v>
+        <v>813</v>
       </c>
       <c r="I15" s="7">
-        <v>579738</v>
+        <v>876841</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4584,10 +4077,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1053</v>
+        <v>1581</v>
       </c>
       <c r="N15" s="7">
-        <v>1130098</v>
+        <v>1649476</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4601,55 +4094,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>178</v>
+        <v>691</v>
       </c>
       <c r="D16" s="7">
-        <v>180672</v>
+        <v>734604</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>200</v>
+        <v>267</v>
       </c>
       <c r="H16" s="7">
-        <v>185</v>
+        <v>730</v>
       </c>
       <c r="I16" s="7">
-        <v>197551</v>
+        <v>753907</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>296</v>
+        <v>268</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>297</v>
+        <v>109</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>298</v>
+        <v>205</v>
       </c>
       <c r="M16" s="7">
-        <v>363</v>
+        <v>1421</v>
       </c>
       <c r="N16" s="7">
-        <v>378223</v>
+        <v>1488511</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>299</v>
+        <v>269</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>301</v>
+        <v>271</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4658,49 +4151,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>590</v>
+        <v>1839</v>
       </c>
       <c r="D17" s="7">
-        <v>591963</v>
+        <v>1929729</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>302</v>
+        <v>272</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>210</v>
+        <v>273</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>303</v>
+        <v>274</v>
       </c>
       <c r="H17" s="7">
-        <v>628</v>
+        <v>1997</v>
       </c>
       <c r="I17" s="7">
-        <v>679290</v>
+        <v>2113408</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>304</v>
+        <v>275</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>305</v>
+        <v>213</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>306</v>
+        <v>119</v>
       </c>
       <c r="M17" s="7">
-        <v>1218</v>
+        <v>3836</v>
       </c>
       <c r="N17" s="7">
-        <v>1271253</v>
+        <v>4043137</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>307</v>
+        <v>276</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>309</v>
+        <v>278</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4709,10 +4202,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>768</v>
+        <v>2530</v>
       </c>
       <c r="D18" s="7">
-        <v>772635</v>
+        <v>2664333</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4724,10 +4217,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>813</v>
+        <v>2727</v>
       </c>
       <c r="I18" s="7">
-        <v>876841</v>
+        <v>2867315</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4739,10 +4232,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1581</v>
+        <v>5257</v>
       </c>
       <c r="N18" s="7">
-        <v>1649476</v>
+        <v>5531648</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4755,171 +4248,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>691</v>
-      </c>
-      <c r="D19" s="7">
-        <v>734604</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="H19" s="7">
-        <v>730</v>
-      </c>
-      <c r="I19" s="7">
-        <v>753907</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1421</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1488511</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1839</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1929730</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1997</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2113408</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="M20" s="7">
-        <v>3836</v>
-      </c>
-      <c r="N20" s="7">
-        <v>4043138</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>2530</v>
-      </c>
-      <c r="D21" s="7">
-        <v>2664334</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>2727</v>
-      </c>
-      <c r="I21" s="7">
-        <v>2867315</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>5257</v>
-      </c>
-      <c r="N21" s="7">
-        <v>5531649</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4932,8 +4269,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EEA4529-64C5-4579-949C-55785AE0617B}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77631979-AC1B-458F-841C-C1450FBFBDF8}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4949,7 +4286,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>328</v>
+        <v>279</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5050,49 +4387,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>18</v>
+        <v>138</v>
       </c>
       <c r="D4" s="7">
-        <v>18006</v>
+        <v>143481</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>329</v>
+        <v>280</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>330</v>
+        <v>281</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>331</v>
+        <v>282</v>
       </c>
       <c r="H4" s="7">
-        <v>41</v>
+        <v>209</v>
       </c>
       <c r="I4" s="7">
-        <v>22777</v>
+        <v>116483</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>332</v>
+        <v>283</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>333</v>
+        <v>284</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="M4" s="7">
-        <v>59</v>
+        <v>347</v>
       </c>
       <c r="N4" s="7">
-        <v>40783</v>
+        <v>259964</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>334</v>
+        <v>286</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>335</v>
+        <v>287</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>336</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5101,49 +4438,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>97</v>
+        <v>558</v>
       </c>
       <c r="D5" s="7">
-        <v>82468</v>
+        <v>467823</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>337</v>
+        <v>289</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>338</v>
+        <v>290</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>339</v>
+        <v>291</v>
       </c>
       <c r="H5" s="7">
-        <v>197</v>
+        <v>987</v>
       </c>
       <c r="I5" s="7">
-        <v>105509</v>
+        <v>534406</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>340</v>
+        <v>292</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>341</v>
+        <v>294</v>
       </c>
       <c r="M5" s="7">
-        <v>294</v>
+        <v>1545</v>
       </c>
       <c r="N5" s="7">
-        <v>187977</v>
+        <v>1002229</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>342</v>
+        <v>295</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>343</v>
+        <v>296</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>344</v>
+        <v>297</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5152,10 +4489,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>115</v>
+        <v>696</v>
       </c>
       <c r="D6" s="7">
-        <v>100474</v>
+        <v>611304</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5167,10 +4504,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>238</v>
+        <v>1196</v>
       </c>
       <c r="I6" s="7">
-        <v>128286</v>
+        <v>650889</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5182,10 +4519,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>353</v>
+        <v>1892</v>
       </c>
       <c r="N6" s="7">
-        <v>228760</v>
+        <v>1262193</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5205,49 +4542,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="D7" s="7">
-        <v>126221</v>
+        <v>152351</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>345</v>
+        <v>298</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>346</v>
+        <v>299</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>347</v>
+        <v>300</v>
       </c>
       <c r="H7" s="7">
-        <v>168</v>
+        <v>267</v>
       </c>
       <c r="I7" s="7">
-        <v>100813</v>
+        <v>164946</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>348</v>
+        <v>301</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>349</v>
+        <v>302</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>350</v>
+        <v>303</v>
       </c>
       <c r="M7" s="7">
-        <v>288</v>
+        <v>416</v>
       </c>
       <c r="N7" s="7">
-        <v>227034</v>
+        <v>317297</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>351</v>
+        <v>304</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>352</v>
+        <v>305</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>353</v>
+        <v>306</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5256,49 +4593,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>461</v>
+        <v>787</v>
       </c>
       <c r="D8" s="7">
-        <v>399928</v>
+        <v>1014365</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>354</v>
+        <v>307</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>355</v>
+        <v>308</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>356</v>
+        <v>309</v>
       </c>
       <c r="H8" s="7">
-        <v>790</v>
+        <v>1219</v>
       </c>
       <c r="I8" s="7">
-        <v>468014</v>
+        <v>777379</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>357</v>
+        <v>310</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>358</v>
+        <v>311</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>359</v>
+        <v>312</v>
       </c>
       <c r="M8" s="7">
-        <v>1251</v>
+        <v>2006</v>
       </c>
       <c r="N8" s="7">
-        <v>867942</v>
+        <v>1791743</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>360</v>
+        <v>313</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>361</v>
+        <v>314</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>362</v>
+        <v>315</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5307,10 +4644,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>581</v>
+        <v>936</v>
       </c>
       <c r="D9" s="7">
-        <v>526149</v>
+        <v>1166716</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5322,10 +4659,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>958</v>
+        <v>1486</v>
       </c>
       <c r="I9" s="7">
-        <v>568827</v>
+        <v>942325</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5337,10 +4674,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1539</v>
+        <v>2422</v>
       </c>
       <c r="N9" s="7">
-        <v>1094976</v>
+        <v>2109040</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5360,49 +4697,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D10" s="7">
-        <v>156426</v>
+        <v>166545</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>363</v>
+        <v>316</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="H10" s="7">
+        <v>220</v>
+      </c>
+      <c r="I10" s="7">
+        <v>185598</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="M10" s="7">
         <v>364</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="H10" s="7">
-        <v>267</v>
-      </c>
-      <c r="I10" s="7">
-        <v>179181</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="M10" s="7">
-        <v>416</v>
-      </c>
       <c r="N10" s="7">
-        <v>335607</v>
+        <v>352142</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>368</v>
+        <v>320</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>369</v>
+        <v>321</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>370</v>
+        <v>322</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5411,49 +4748,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>787</v>
+        <v>511</v>
       </c>
       <c r="D11" s="7">
-        <v>859170</v>
+        <v>519722</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>371</v>
+        <v>323</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>362</v>
+        <v>290</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>372</v>
+        <v>324</v>
       </c>
       <c r="H11" s="7">
-        <v>1219</v>
+        <v>804</v>
       </c>
       <c r="I11" s="7">
-        <v>862919</v>
+        <v>736455</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>373</v>
+        <v>325</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>374</v>
+        <v>82</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>375</v>
+        <v>326</v>
       </c>
       <c r="M11" s="7">
-        <v>2006</v>
+        <v>1315</v>
       </c>
       <c r="N11" s="7">
-        <v>1722089</v>
+        <v>1256178</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>376</v>
+        <v>327</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>377</v>
+        <v>328</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>378</v>
+        <v>329</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5462,10 +4799,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>936</v>
+        <v>655</v>
       </c>
       <c r="D12" s="7">
-        <v>1015596</v>
+        <v>686267</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5477,10 +4814,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1486</v>
+        <v>1024</v>
       </c>
       <c r="I12" s="7">
-        <v>1042100</v>
+        <v>922053</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5492,10 +4829,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2422</v>
+        <v>1679</v>
       </c>
       <c r="N12" s="7">
-        <v>2057696</v>
+        <v>1608320</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5509,55 +4846,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D13" s="7">
-        <v>169199</v>
+        <v>139312</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>379</v>
+        <v>330</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>380</v>
+        <v>331</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>381</v>
+        <v>332</v>
       </c>
       <c r="H13" s="7">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="I13" s="7">
-        <v>170784</v>
+        <v>157140</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>382</v>
+        <v>333</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="M13" s="7">
         <v>383</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="M13" s="7">
-        <v>364</v>
-      </c>
       <c r="N13" s="7">
-        <v>339984</v>
+        <v>296452</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>385</v>
+        <v>336</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>386</v>
+        <v>337</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>387</v>
+        <v>338</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5566,49 +4903,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>511</v>
+        <v>827</v>
       </c>
       <c r="D14" s="7">
-        <v>539342</v>
+        <v>749526</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>388</v>
+        <v>339</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>389</v>
+        <v>340</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>390</v>
+        <v>341</v>
       </c>
       <c r="H14" s="7">
-        <v>804</v>
+        <v>1265</v>
       </c>
       <c r="I14" s="7">
-        <v>691404</v>
+        <v>905777</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>391</v>
+        <v>342</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>392</v>
+        <v>343</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>393</v>
+        <v>344</v>
       </c>
       <c r="M14" s="7">
-        <v>1315</v>
+        <v>2092</v>
       </c>
       <c r="N14" s="7">
-        <v>1230746</v>
+        <v>1655303</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>394</v>
+        <v>345</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>395</v>
+        <v>346</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>396</v>
+        <v>347</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5617,10 +4954,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>655</v>
+        <v>965</v>
       </c>
       <c r="D15" s="7">
-        <v>708541</v>
+        <v>888838</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5632,10 +4969,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1024</v>
+        <v>1510</v>
       </c>
       <c r="I15" s="7">
-        <v>862188</v>
+        <v>1062917</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5647,10 +4984,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1679</v>
+        <v>2475</v>
       </c>
       <c r="N15" s="7">
-        <v>1570730</v>
+        <v>1951755</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5664,55 +5001,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>138</v>
+        <v>569</v>
       </c>
       <c r="D16" s="7">
-        <v>143835</v>
+        <v>601689</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>397</v>
+        <v>348</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>398</v>
+        <v>349</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>399</v>
+        <v>350</v>
       </c>
       <c r="H16" s="7">
-        <v>245</v>
+        <v>941</v>
       </c>
       <c r="I16" s="7">
-        <v>172312</v>
+        <v>624166</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>400</v>
+        <v>351</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>401</v>
+        <v>352</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>402</v>
+        <v>353</v>
       </c>
       <c r="M16" s="7">
-        <v>383</v>
+        <v>1510</v>
       </c>
       <c r="N16" s="7">
-        <v>316147</v>
+        <v>1225855</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>403</v>
+        <v>354</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>404</v>
+        <v>355</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>405</v>
+        <v>356</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5721,49 +5058,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>827</v>
+        <v>2683</v>
       </c>
       <c r="D17" s="7">
-        <v>781271</v>
+        <v>2751436</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>406</v>
+        <v>357</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>407</v>
+        <v>358</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>408</v>
+        <v>359</v>
       </c>
       <c r="H17" s="7">
-        <v>1265</v>
+        <v>4275</v>
       </c>
       <c r="I17" s="7">
-        <v>942464</v>
+        <v>2954018</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>409</v>
+        <v>360</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>410</v>
+        <v>361</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>411</v>
+        <v>362</v>
       </c>
       <c r="M17" s="7">
-        <v>2092</v>
+        <v>6958</v>
       </c>
       <c r="N17" s="7">
-        <v>1723736</v>
+        <v>5705454</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>412</v>
+        <v>363</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>413</v>
+        <v>364</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>414</v>
+        <v>365</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5772,10 +5109,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>965</v>
+        <v>3252</v>
       </c>
       <c r="D18" s="7">
-        <v>925106</v>
+        <v>3353125</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5787,10 +5124,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1510</v>
+        <v>5216</v>
       </c>
       <c r="I18" s="7">
-        <v>1114776</v>
+        <v>3578184</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5802,10 +5139,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2475</v>
+        <v>8468</v>
       </c>
       <c r="N18" s="7">
-        <v>2039883</v>
+        <v>6931309</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5818,171 +5155,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>569</v>
-      </c>
-      <c r="D19" s="7">
-        <v>613687</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="H19" s="7">
-        <v>941</v>
-      </c>
-      <c r="I19" s="7">
-        <v>645867</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1510</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1259555</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2683</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2662179</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="H20" s="7">
-        <v>4275</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3070311</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6958</v>
-      </c>
-      <c r="N20" s="7">
-        <v>5732489</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3252</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3275866</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5216</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3716178</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8468</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6992044</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
